--- a/data/boxj.xlsx
+++ b/data/boxj.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ODT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2ABEF087-4922-4692-B063-46E64F82410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009968D0-7260-4413-8171-112D5EB25323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34035" yWindow="1935" windowWidth="21705" windowHeight="13620"/>
+    <workbookView xWindow="-3910" yWindow="270" windowWidth="23900" windowHeight="13060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="boxj" sheetId="1" r:id="rId1"/>
+    <sheet name="forecast" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>t-12</t>
   </si>
@@ -78,11 +92,14 @@
   <si>
     <t>t_ordinato</t>
   </si>
+  <si>
+    <t>for</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +440,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -584,12 +607,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1714,6 +1738,1114 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forecast!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>forecast!$M$2:$M$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="132"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A30C-472A-8356-F51ADD428C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forecast!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>for</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>forecast!$N$2:$N$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="132"/>
+                <c:pt idx="120">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A30C-472A-8356-F51ADD428C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forecast!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>for</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>forecast!$W$2:$W$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="132"/>
+                <c:pt idx="0">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>306.75</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>453.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>453.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A30C-472A-8356-F51ADD428C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="48943472"/>
+        <c:axId val="149418144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="48943472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149418144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149418144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48943472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1754,7 +2886,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2311,6 +3999,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>173037</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>477837</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABA2D60-FD35-09D9-637A-E6541C108C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2607,11 +4336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9086,4 +10815,6049 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47D7ABC-9C45-44D8-8319-DD59387B0160}">
+  <dimension ref="A1:W133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>118</v>
+      </c>
+      <c r="C2">
+        <v>132</v>
+      </c>
+      <c r="D2">
+        <v>129</v>
+      </c>
+      <c r="E2">
+        <v>121</v>
+      </c>
+      <c r="F2">
+        <v>135</v>
+      </c>
+      <c r="G2">
+        <v>148</v>
+      </c>
+      <c r="H2">
+        <v>148</v>
+      </c>
+      <c r="I2">
+        <v>136</v>
+      </c>
+      <c r="J2">
+        <v>119</v>
+      </c>
+      <c r="K2">
+        <v>104</v>
+      </c>
+      <c r="L2">
+        <v>118</v>
+      </c>
+      <c r="M2">
+        <v>115</v>
+      </c>
+      <c r="P2">
+        <f>QUARTILE($M$2:$M$121,0)</f>
+        <v>114</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE(P2,P3)</f>
+        <v>153.25</v>
+      </c>
+      <c r="W2">
+        <f>IF(AND(M2&gt;=$P$2,M2&lt;$P$3),$Q$2,IF(AND(M2&gt;=$P$3,M2&lt;$P$4),$Q$3,IF(AND(M2&gt;=$P$4,M2&lt;$P$5),$Q$4,$Q$5)))</f>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>118</v>
+      </c>
+      <c r="B3">
+        <v>132</v>
+      </c>
+      <c r="C3">
+        <v>129</v>
+      </c>
+      <c r="D3">
+        <v>121</v>
+      </c>
+      <c r="E3">
+        <v>135</v>
+      </c>
+      <c r="F3">
+        <v>148</v>
+      </c>
+      <c r="G3">
+        <v>148</v>
+      </c>
+      <c r="H3">
+        <v>136</v>
+      </c>
+      <c r="I3">
+        <v>119</v>
+      </c>
+      <c r="J3">
+        <v>104</v>
+      </c>
+      <c r="K3">
+        <v>118</v>
+      </c>
+      <c r="L3">
+        <v>115</v>
+      </c>
+      <c r="M3">
+        <v>126</v>
+      </c>
+      <c r="P3">
+        <f>QUARTILE($M$2:$M$121,1)</f>
+        <v>192.5</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q5" si="0">AVERAGE(P3,P4)</f>
+        <v>229</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W66" si="1">IF(AND(M3&gt;=$P$2,M3&lt;$P$3),$Q$2,IF(AND(M3&gt;=$P$3,M3&lt;$P$4),$Q$3,IF(AND(M3&gt;=$P$4,M3&lt;$P$5),$Q$4,$Q$5)))</f>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>132</v>
+      </c>
+      <c r="B4">
+        <v>129</v>
+      </c>
+      <c r="C4">
+        <v>121</v>
+      </c>
+      <c r="D4">
+        <v>135</v>
+      </c>
+      <c r="E4">
+        <v>148</v>
+      </c>
+      <c r="F4">
+        <v>148</v>
+      </c>
+      <c r="G4">
+        <v>136</v>
+      </c>
+      <c r="H4">
+        <v>119</v>
+      </c>
+      <c r="I4">
+        <v>104</v>
+      </c>
+      <c r="J4">
+        <v>118</v>
+      </c>
+      <c r="K4">
+        <v>115</v>
+      </c>
+      <c r="L4">
+        <v>126</v>
+      </c>
+      <c r="M4">
+        <v>141</v>
+      </c>
+      <c r="P4">
+        <f>QUARTILE($M$2:$M$121,2)</f>
+        <v>265.5</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>306.75</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>129</v>
+      </c>
+      <c r="B5">
+        <v>121</v>
+      </c>
+      <c r="C5">
+        <v>135</v>
+      </c>
+      <c r="D5">
+        <v>148</v>
+      </c>
+      <c r="E5">
+        <v>148</v>
+      </c>
+      <c r="F5">
+        <v>136</v>
+      </c>
+      <c r="G5">
+        <v>119</v>
+      </c>
+      <c r="H5">
+        <v>104</v>
+      </c>
+      <c r="I5">
+        <v>118</v>
+      </c>
+      <c r="J5">
+        <v>115</v>
+      </c>
+      <c r="K5">
+        <v>126</v>
+      </c>
+      <c r="L5">
+        <v>141</v>
+      </c>
+      <c r="M5">
+        <v>135</v>
+      </c>
+      <c r="P5">
+        <f>QUARTILE($M$2:$M$121,3)</f>
+        <v>348</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>453.5</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <v>135</v>
+      </c>
+      <c r="C6">
+        <v>148</v>
+      </c>
+      <c r="D6">
+        <v>148</v>
+      </c>
+      <c r="E6">
+        <v>136</v>
+      </c>
+      <c r="F6">
+        <v>119</v>
+      </c>
+      <c r="G6">
+        <v>104</v>
+      </c>
+      <c r="H6">
+        <v>118</v>
+      </c>
+      <c r="I6">
+        <v>115</v>
+      </c>
+      <c r="J6">
+        <v>126</v>
+      </c>
+      <c r="K6">
+        <v>141</v>
+      </c>
+      <c r="L6">
+        <v>135</v>
+      </c>
+      <c r="M6">
+        <v>125</v>
+      </c>
+      <c r="P6">
+        <f>QUARTILE($M$2:$M$121,4)</f>
+        <v>559</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>135</v>
+      </c>
+      <c r="B7">
+        <v>148</v>
+      </c>
+      <c r="C7">
+        <v>148</v>
+      </c>
+      <c r="D7">
+        <v>136</v>
+      </c>
+      <c r="E7">
+        <v>119</v>
+      </c>
+      <c r="F7">
+        <v>104</v>
+      </c>
+      <c r="G7">
+        <v>118</v>
+      </c>
+      <c r="H7">
+        <v>115</v>
+      </c>
+      <c r="I7">
+        <v>126</v>
+      </c>
+      <c r="J7">
+        <v>141</v>
+      </c>
+      <c r="K7">
+        <v>135</v>
+      </c>
+      <c r="L7">
+        <v>125</v>
+      </c>
+      <c r="M7">
+        <v>149</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>148</v>
+      </c>
+      <c r="B8">
+        <v>148</v>
+      </c>
+      <c r="C8">
+        <v>136</v>
+      </c>
+      <c r="D8">
+        <v>119</v>
+      </c>
+      <c r="E8">
+        <v>104</v>
+      </c>
+      <c r="F8">
+        <v>118</v>
+      </c>
+      <c r="G8">
+        <v>115</v>
+      </c>
+      <c r="H8">
+        <v>126</v>
+      </c>
+      <c r="I8">
+        <v>141</v>
+      </c>
+      <c r="J8">
+        <v>135</v>
+      </c>
+      <c r="K8">
+        <v>125</v>
+      </c>
+      <c r="L8">
+        <v>149</v>
+      </c>
+      <c r="M8">
+        <v>170</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>148</v>
+      </c>
+      <c r="B9">
+        <v>136</v>
+      </c>
+      <c r="C9">
+        <v>119</v>
+      </c>
+      <c r="D9">
+        <v>104</v>
+      </c>
+      <c r="E9">
+        <v>118</v>
+      </c>
+      <c r="F9">
+        <v>115</v>
+      </c>
+      <c r="G9">
+        <v>126</v>
+      </c>
+      <c r="H9">
+        <v>141</v>
+      </c>
+      <c r="I9">
+        <v>135</v>
+      </c>
+      <c r="J9">
+        <v>125</v>
+      </c>
+      <c r="K9">
+        <v>149</v>
+      </c>
+      <c r="L9">
+        <v>170</v>
+      </c>
+      <c r="M9">
+        <v>170</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>136</v>
+      </c>
+      <c r="B10">
+        <v>119</v>
+      </c>
+      <c r="C10">
+        <v>104</v>
+      </c>
+      <c r="D10">
+        <v>118</v>
+      </c>
+      <c r="E10">
+        <v>115</v>
+      </c>
+      <c r="F10">
+        <v>126</v>
+      </c>
+      <c r="G10">
+        <v>141</v>
+      </c>
+      <c r="H10">
+        <v>135</v>
+      </c>
+      <c r="I10">
+        <v>125</v>
+      </c>
+      <c r="J10">
+        <v>149</v>
+      </c>
+      <c r="K10">
+        <v>170</v>
+      </c>
+      <c r="L10">
+        <v>170</v>
+      </c>
+      <c r="M10">
+        <v>158</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>119</v>
+      </c>
+      <c r="B11">
+        <v>104</v>
+      </c>
+      <c r="C11">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>115</v>
+      </c>
+      <c r="E11">
+        <v>126</v>
+      </c>
+      <c r="F11">
+        <v>141</v>
+      </c>
+      <c r="G11">
+        <v>135</v>
+      </c>
+      <c r="H11">
+        <v>125</v>
+      </c>
+      <c r="I11">
+        <v>149</v>
+      </c>
+      <c r="J11">
+        <v>170</v>
+      </c>
+      <c r="K11">
+        <v>170</v>
+      </c>
+      <c r="L11">
+        <v>158</v>
+      </c>
+      <c r="M11">
+        <v>133</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>104</v>
+      </c>
+      <c r="B12">
+        <v>118</v>
+      </c>
+      <c r="C12">
+        <v>115</v>
+      </c>
+      <c r="D12">
+        <v>126</v>
+      </c>
+      <c r="E12">
+        <v>141</v>
+      </c>
+      <c r="F12">
+        <v>135</v>
+      </c>
+      <c r="G12">
+        <v>125</v>
+      </c>
+      <c r="H12">
+        <v>149</v>
+      </c>
+      <c r="I12">
+        <v>170</v>
+      </c>
+      <c r="J12">
+        <v>170</v>
+      </c>
+      <c r="K12">
+        <v>158</v>
+      </c>
+      <c r="L12">
+        <v>133</v>
+      </c>
+      <c r="M12">
+        <v>114</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>118</v>
+      </c>
+      <c r="B13">
+        <v>115</v>
+      </c>
+      <c r="C13">
+        <v>126</v>
+      </c>
+      <c r="D13">
+        <v>141</v>
+      </c>
+      <c r="E13">
+        <v>135</v>
+      </c>
+      <c r="F13">
+        <v>125</v>
+      </c>
+      <c r="G13">
+        <v>149</v>
+      </c>
+      <c r="H13">
+        <v>170</v>
+      </c>
+      <c r="I13">
+        <v>170</v>
+      </c>
+      <c r="J13">
+        <v>158</v>
+      </c>
+      <c r="K13">
+        <v>133</v>
+      </c>
+      <c r="L13">
+        <v>114</v>
+      </c>
+      <c r="M13">
+        <v>140</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>115</v>
+      </c>
+      <c r="B14">
+        <v>126</v>
+      </c>
+      <c r="C14">
+        <v>141</v>
+      </c>
+      <c r="D14">
+        <v>135</v>
+      </c>
+      <c r="E14">
+        <v>125</v>
+      </c>
+      <c r="F14">
+        <v>149</v>
+      </c>
+      <c r="G14">
+        <v>170</v>
+      </c>
+      <c r="H14">
+        <v>170</v>
+      </c>
+      <c r="I14">
+        <v>158</v>
+      </c>
+      <c r="J14">
+        <v>133</v>
+      </c>
+      <c r="K14">
+        <v>114</v>
+      </c>
+      <c r="L14">
+        <v>140</v>
+      </c>
+      <c r="M14">
+        <v>145</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>126</v>
+      </c>
+      <c r="B15">
+        <v>141</v>
+      </c>
+      <c r="C15">
+        <v>135</v>
+      </c>
+      <c r="D15">
+        <v>125</v>
+      </c>
+      <c r="E15">
+        <v>149</v>
+      </c>
+      <c r="F15">
+        <v>170</v>
+      </c>
+      <c r="G15">
+        <v>170</v>
+      </c>
+      <c r="H15">
+        <v>158</v>
+      </c>
+      <c r="I15">
+        <v>133</v>
+      </c>
+      <c r="J15">
+        <v>114</v>
+      </c>
+      <c r="K15">
+        <v>140</v>
+      </c>
+      <c r="L15">
+        <v>145</v>
+      </c>
+      <c r="M15">
+        <v>150</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>141</v>
+      </c>
+      <c r="B16">
+        <v>135</v>
+      </c>
+      <c r="C16">
+        <v>125</v>
+      </c>
+      <c r="D16">
+        <v>149</v>
+      </c>
+      <c r="E16">
+        <v>170</v>
+      </c>
+      <c r="F16">
+        <v>170</v>
+      </c>
+      <c r="G16">
+        <v>158</v>
+      </c>
+      <c r="H16">
+        <v>133</v>
+      </c>
+      <c r="I16">
+        <v>114</v>
+      </c>
+      <c r="J16">
+        <v>140</v>
+      </c>
+      <c r="K16">
+        <v>145</v>
+      </c>
+      <c r="L16">
+        <v>150</v>
+      </c>
+      <c r="M16">
+        <v>178</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>135</v>
+      </c>
+      <c r="B17">
+        <v>125</v>
+      </c>
+      <c r="C17">
+        <v>149</v>
+      </c>
+      <c r="D17">
+        <v>170</v>
+      </c>
+      <c r="E17">
+        <v>170</v>
+      </c>
+      <c r="F17">
+        <v>158</v>
+      </c>
+      <c r="G17">
+        <v>133</v>
+      </c>
+      <c r="H17">
+        <v>114</v>
+      </c>
+      <c r="I17">
+        <v>140</v>
+      </c>
+      <c r="J17">
+        <v>145</v>
+      </c>
+      <c r="K17">
+        <v>150</v>
+      </c>
+      <c r="L17">
+        <v>178</v>
+      </c>
+      <c r="M17">
+        <v>163</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>125</v>
+      </c>
+      <c r="B18">
+        <v>149</v>
+      </c>
+      <c r="C18">
+        <v>170</v>
+      </c>
+      <c r="D18">
+        <v>170</v>
+      </c>
+      <c r="E18">
+        <v>158</v>
+      </c>
+      <c r="F18">
+        <v>133</v>
+      </c>
+      <c r="G18">
+        <v>114</v>
+      </c>
+      <c r="H18">
+        <v>140</v>
+      </c>
+      <c r="I18">
+        <v>145</v>
+      </c>
+      <c r="J18">
+        <v>150</v>
+      </c>
+      <c r="K18">
+        <v>178</v>
+      </c>
+      <c r="L18">
+        <v>163</v>
+      </c>
+      <c r="M18">
+        <v>172</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>149</v>
+      </c>
+      <c r="B19">
+        <v>170</v>
+      </c>
+      <c r="C19">
+        <v>170</v>
+      </c>
+      <c r="D19">
+        <v>158</v>
+      </c>
+      <c r="E19">
+        <v>133</v>
+      </c>
+      <c r="F19">
+        <v>114</v>
+      </c>
+      <c r="G19">
+        <v>140</v>
+      </c>
+      <c r="H19">
+        <v>145</v>
+      </c>
+      <c r="I19">
+        <v>150</v>
+      </c>
+      <c r="J19">
+        <v>178</v>
+      </c>
+      <c r="K19">
+        <v>163</v>
+      </c>
+      <c r="L19">
+        <v>172</v>
+      </c>
+      <c r="M19">
+        <v>178</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>170</v>
+      </c>
+      <c r="B20">
+        <v>170</v>
+      </c>
+      <c r="C20">
+        <v>158</v>
+      </c>
+      <c r="D20">
+        <v>133</v>
+      </c>
+      <c r="E20">
+        <v>114</v>
+      </c>
+      <c r="F20">
+        <v>140</v>
+      </c>
+      <c r="G20">
+        <v>145</v>
+      </c>
+      <c r="H20">
+        <v>150</v>
+      </c>
+      <c r="I20">
+        <v>178</v>
+      </c>
+      <c r="J20">
+        <v>163</v>
+      </c>
+      <c r="K20">
+        <v>172</v>
+      </c>
+      <c r="L20">
+        <v>178</v>
+      </c>
+      <c r="M20">
+        <v>199</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>170</v>
+      </c>
+      <c r="B21">
+        <v>158</v>
+      </c>
+      <c r="C21">
+        <v>133</v>
+      </c>
+      <c r="D21">
+        <v>114</v>
+      </c>
+      <c r="E21">
+        <v>140</v>
+      </c>
+      <c r="F21">
+        <v>145</v>
+      </c>
+      <c r="G21">
+        <v>150</v>
+      </c>
+      <c r="H21">
+        <v>178</v>
+      </c>
+      <c r="I21">
+        <v>163</v>
+      </c>
+      <c r="J21">
+        <v>172</v>
+      </c>
+      <c r="K21">
+        <v>178</v>
+      </c>
+      <c r="L21">
+        <v>199</v>
+      </c>
+      <c r="M21">
+        <v>199</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>158</v>
+      </c>
+      <c r="B22">
+        <v>133</v>
+      </c>
+      <c r="C22">
+        <v>114</v>
+      </c>
+      <c r="D22">
+        <v>140</v>
+      </c>
+      <c r="E22">
+        <v>145</v>
+      </c>
+      <c r="F22">
+        <v>150</v>
+      </c>
+      <c r="G22">
+        <v>178</v>
+      </c>
+      <c r="H22">
+        <v>163</v>
+      </c>
+      <c r="I22">
+        <v>172</v>
+      </c>
+      <c r="J22">
+        <v>178</v>
+      </c>
+      <c r="K22">
+        <v>199</v>
+      </c>
+      <c r="L22">
+        <v>199</v>
+      </c>
+      <c r="M22">
+        <v>184</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>133</v>
+      </c>
+      <c r="B23">
+        <v>114</v>
+      </c>
+      <c r="C23">
+        <v>140</v>
+      </c>
+      <c r="D23">
+        <v>145</v>
+      </c>
+      <c r="E23">
+        <v>150</v>
+      </c>
+      <c r="F23">
+        <v>178</v>
+      </c>
+      <c r="G23">
+        <v>163</v>
+      </c>
+      <c r="H23">
+        <v>172</v>
+      </c>
+      <c r="I23">
+        <v>178</v>
+      </c>
+      <c r="J23">
+        <v>199</v>
+      </c>
+      <c r="K23">
+        <v>199</v>
+      </c>
+      <c r="L23">
+        <v>184</v>
+      </c>
+      <c r="M23">
+        <v>162</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>114</v>
+      </c>
+      <c r="B24">
+        <v>140</v>
+      </c>
+      <c r="C24">
+        <v>145</v>
+      </c>
+      <c r="D24">
+        <v>150</v>
+      </c>
+      <c r="E24">
+        <v>178</v>
+      </c>
+      <c r="F24">
+        <v>163</v>
+      </c>
+      <c r="G24">
+        <v>172</v>
+      </c>
+      <c r="H24">
+        <v>178</v>
+      </c>
+      <c r="I24">
+        <v>199</v>
+      </c>
+      <c r="J24">
+        <v>199</v>
+      </c>
+      <c r="K24">
+        <v>184</v>
+      </c>
+      <c r="L24">
+        <v>162</v>
+      </c>
+      <c r="M24">
+        <v>146</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>140</v>
+      </c>
+      <c r="B25">
+        <v>145</v>
+      </c>
+      <c r="C25">
+        <v>150</v>
+      </c>
+      <c r="D25">
+        <v>178</v>
+      </c>
+      <c r="E25">
+        <v>163</v>
+      </c>
+      <c r="F25">
+        <v>172</v>
+      </c>
+      <c r="G25">
+        <v>178</v>
+      </c>
+      <c r="H25">
+        <v>199</v>
+      </c>
+      <c r="I25">
+        <v>199</v>
+      </c>
+      <c r="J25">
+        <v>184</v>
+      </c>
+      <c r="K25">
+        <v>162</v>
+      </c>
+      <c r="L25">
+        <v>146</v>
+      </c>
+      <c r="M25">
+        <v>166</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>145</v>
+      </c>
+      <c r="B26">
+        <v>150</v>
+      </c>
+      <c r="C26">
+        <v>178</v>
+      </c>
+      <c r="D26">
+        <v>163</v>
+      </c>
+      <c r="E26">
+        <v>172</v>
+      </c>
+      <c r="F26">
+        <v>178</v>
+      </c>
+      <c r="G26">
+        <v>199</v>
+      </c>
+      <c r="H26">
+        <v>199</v>
+      </c>
+      <c r="I26">
+        <v>184</v>
+      </c>
+      <c r="J26">
+        <v>162</v>
+      </c>
+      <c r="K26">
+        <v>146</v>
+      </c>
+      <c r="L26">
+        <v>166</v>
+      </c>
+      <c r="M26">
+        <v>171</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>150</v>
+      </c>
+      <c r="B27">
+        <v>178</v>
+      </c>
+      <c r="C27">
+        <v>163</v>
+      </c>
+      <c r="D27">
+        <v>172</v>
+      </c>
+      <c r="E27">
+        <v>178</v>
+      </c>
+      <c r="F27">
+        <v>199</v>
+      </c>
+      <c r="G27">
+        <v>199</v>
+      </c>
+      <c r="H27">
+        <v>184</v>
+      </c>
+      <c r="I27">
+        <v>162</v>
+      </c>
+      <c r="J27">
+        <v>146</v>
+      </c>
+      <c r="K27">
+        <v>166</v>
+      </c>
+      <c r="L27">
+        <v>171</v>
+      </c>
+      <c r="M27">
+        <v>180</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>178</v>
+      </c>
+      <c r="B28">
+        <v>163</v>
+      </c>
+      <c r="C28">
+        <v>172</v>
+      </c>
+      <c r="D28">
+        <v>178</v>
+      </c>
+      <c r="E28">
+        <v>199</v>
+      </c>
+      <c r="F28">
+        <v>199</v>
+      </c>
+      <c r="G28">
+        <v>184</v>
+      </c>
+      <c r="H28">
+        <v>162</v>
+      </c>
+      <c r="I28">
+        <v>146</v>
+      </c>
+      <c r="J28">
+        <v>166</v>
+      </c>
+      <c r="K28">
+        <v>171</v>
+      </c>
+      <c r="L28">
+        <v>180</v>
+      </c>
+      <c r="M28">
+        <v>193</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>163</v>
+      </c>
+      <c r="B29">
+        <v>172</v>
+      </c>
+      <c r="C29">
+        <v>178</v>
+      </c>
+      <c r="D29">
+        <v>199</v>
+      </c>
+      <c r="E29">
+        <v>199</v>
+      </c>
+      <c r="F29">
+        <v>184</v>
+      </c>
+      <c r="G29">
+        <v>162</v>
+      </c>
+      <c r="H29">
+        <v>146</v>
+      </c>
+      <c r="I29">
+        <v>166</v>
+      </c>
+      <c r="J29">
+        <v>171</v>
+      </c>
+      <c r="K29">
+        <v>180</v>
+      </c>
+      <c r="L29">
+        <v>193</v>
+      </c>
+      <c r="M29">
+        <v>181</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>172</v>
+      </c>
+      <c r="B30">
+        <v>178</v>
+      </c>
+      <c r="C30">
+        <v>199</v>
+      </c>
+      <c r="D30">
+        <v>199</v>
+      </c>
+      <c r="E30">
+        <v>184</v>
+      </c>
+      <c r="F30">
+        <v>162</v>
+      </c>
+      <c r="G30">
+        <v>146</v>
+      </c>
+      <c r="H30">
+        <v>166</v>
+      </c>
+      <c r="I30">
+        <v>171</v>
+      </c>
+      <c r="J30">
+        <v>180</v>
+      </c>
+      <c r="K30">
+        <v>193</v>
+      </c>
+      <c r="L30">
+        <v>181</v>
+      </c>
+      <c r="M30">
+        <v>183</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>178</v>
+      </c>
+      <c r="B31">
+        <v>199</v>
+      </c>
+      <c r="C31">
+        <v>199</v>
+      </c>
+      <c r="D31">
+        <v>184</v>
+      </c>
+      <c r="E31">
+        <v>162</v>
+      </c>
+      <c r="F31">
+        <v>146</v>
+      </c>
+      <c r="G31">
+        <v>166</v>
+      </c>
+      <c r="H31">
+        <v>171</v>
+      </c>
+      <c r="I31">
+        <v>180</v>
+      </c>
+      <c r="J31">
+        <v>193</v>
+      </c>
+      <c r="K31">
+        <v>181</v>
+      </c>
+      <c r="L31">
+        <v>183</v>
+      </c>
+      <c r="M31">
+        <v>218</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>199</v>
+      </c>
+      <c r="B32">
+        <v>199</v>
+      </c>
+      <c r="C32">
+        <v>184</v>
+      </c>
+      <c r="D32">
+        <v>162</v>
+      </c>
+      <c r="E32">
+        <v>146</v>
+      </c>
+      <c r="F32">
+        <v>166</v>
+      </c>
+      <c r="G32">
+        <v>171</v>
+      </c>
+      <c r="H32">
+        <v>180</v>
+      </c>
+      <c r="I32">
+        <v>193</v>
+      </c>
+      <c r="J32">
+        <v>181</v>
+      </c>
+      <c r="K32">
+        <v>183</v>
+      </c>
+      <c r="L32">
+        <v>218</v>
+      </c>
+      <c r="M32">
+        <v>230</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>199</v>
+      </c>
+      <c r="B33">
+        <v>184</v>
+      </c>
+      <c r="C33">
+        <v>162</v>
+      </c>
+      <c r="D33">
+        <v>146</v>
+      </c>
+      <c r="E33">
+        <v>166</v>
+      </c>
+      <c r="F33">
+        <v>171</v>
+      </c>
+      <c r="G33">
+        <v>180</v>
+      </c>
+      <c r="H33">
+        <v>193</v>
+      </c>
+      <c r="I33">
+        <v>181</v>
+      </c>
+      <c r="J33">
+        <v>183</v>
+      </c>
+      <c r="K33">
+        <v>218</v>
+      </c>
+      <c r="L33">
+        <v>230</v>
+      </c>
+      <c r="M33">
+        <v>242</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>184</v>
+      </c>
+      <c r="B34">
+        <v>162</v>
+      </c>
+      <c r="C34">
+        <v>146</v>
+      </c>
+      <c r="D34">
+        <v>166</v>
+      </c>
+      <c r="E34">
+        <v>171</v>
+      </c>
+      <c r="F34">
+        <v>180</v>
+      </c>
+      <c r="G34">
+        <v>193</v>
+      </c>
+      <c r="H34">
+        <v>181</v>
+      </c>
+      <c r="I34">
+        <v>183</v>
+      </c>
+      <c r="J34">
+        <v>218</v>
+      </c>
+      <c r="K34">
+        <v>230</v>
+      </c>
+      <c r="L34">
+        <v>242</v>
+      </c>
+      <c r="M34">
+        <v>209</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>162</v>
+      </c>
+      <c r="B35">
+        <v>146</v>
+      </c>
+      <c r="C35">
+        <v>166</v>
+      </c>
+      <c r="D35">
+        <v>171</v>
+      </c>
+      <c r="E35">
+        <v>180</v>
+      </c>
+      <c r="F35">
+        <v>193</v>
+      </c>
+      <c r="G35">
+        <v>181</v>
+      </c>
+      <c r="H35">
+        <v>183</v>
+      </c>
+      <c r="I35">
+        <v>218</v>
+      </c>
+      <c r="J35">
+        <v>230</v>
+      </c>
+      <c r="K35">
+        <v>242</v>
+      </c>
+      <c r="L35">
+        <v>209</v>
+      </c>
+      <c r="M35">
+        <v>191</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>146</v>
+      </c>
+      <c r="B36">
+        <v>166</v>
+      </c>
+      <c r="C36">
+        <v>171</v>
+      </c>
+      <c r="D36">
+        <v>180</v>
+      </c>
+      <c r="E36">
+        <v>193</v>
+      </c>
+      <c r="F36">
+        <v>181</v>
+      </c>
+      <c r="G36">
+        <v>183</v>
+      </c>
+      <c r="H36">
+        <v>218</v>
+      </c>
+      <c r="I36">
+        <v>230</v>
+      </c>
+      <c r="J36">
+        <v>242</v>
+      </c>
+      <c r="K36">
+        <v>209</v>
+      </c>
+      <c r="L36">
+        <v>191</v>
+      </c>
+      <c r="M36">
+        <v>172</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>166</v>
+      </c>
+      <c r="B37">
+        <v>171</v>
+      </c>
+      <c r="C37">
+        <v>180</v>
+      </c>
+      <c r="D37">
+        <v>193</v>
+      </c>
+      <c r="E37">
+        <v>181</v>
+      </c>
+      <c r="F37">
+        <v>183</v>
+      </c>
+      <c r="G37">
+        <v>218</v>
+      </c>
+      <c r="H37">
+        <v>230</v>
+      </c>
+      <c r="I37">
+        <v>242</v>
+      </c>
+      <c r="J37">
+        <v>209</v>
+      </c>
+      <c r="K37">
+        <v>191</v>
+      </c>
+      <c r="L37">
+        <v>172</v>
+      </c>
+      <c r="M37">
+        <v>194</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>171</v>
+      </c>
+      <c r="B38">
+        <v>180</v>
+      </c>
+      <c r="C38">
+        <v>193</v>
+      </c>
+      <c r="D38">
+        <v>181</v>
+      </c>
+      <c r="E38">
+        <v>183</v>
+      </c>
+      <c r="F38">
+        <v>218</v>
+      </c>
+      <c r="G38">
+        <v>230</v>
+      </c>
+      <c r="H38">
+        <v>242</v>
+      </c>
+      <c r="I38">
+        <v>209</v>
+      </c>
+      <c r="J38">
+        <v>191</v>
+      </c>
+      <c r="K38">
+        <v>172</v>
+      </c>
+      <c r="L38">
+        <v>194</v>
+      </c>
+      <c r="M38">
+        <v>196</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>180</v>
+      </c>
+      <c r="B39">
+        <v>193</v>
+      </c>
+      <c r="C39">
+        <v>181</v>
+      </c>
+      <c r="D39">
+        <v>183</v>
+      </c>
+      <c r="E39">
+        <v>218</v>
+      </c>
+      <c r="F39">
+        <v>230</v>
+      </c>
+      <c r="G39">
+        <v>242</v>
+      </c>
+      <c r="H39">
+        <v>209</v>
+      </c>
+      <c r="I39">
+        <v>191</v>
+      </c>
+      <c r="J39">
+        <v>172</v>
+      </c>
+      <c r="K39">
+        <v>194</v>
+      </c>
+      <c r="L39">
+        <v>196</v>
+      </c>
+      <c r="M39">
+        <v>196</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>193</v>
+      </c>
+      <c r="B40">
+        <v>181</v>
+      </c>
+      <c r="C40">
+        <v>183</v>
+      </c>
+      <c r="D40">
+        <v>218</v>
+      </c>
+      <c r="E40">
+        <v>230</v>
+      </c>
+      <c r="F40">
+        <v>242</v>
+      </c>
+      <c r="G40">
+        <v>209</v>
+      </c>
+      <c r="H40">
+        <v>191</v>
+      </c>
+      <c r="I40">
+        <v>172</v>
+      </c>
+      <c r="J40">
+        <v>194</v>
+      </c>
+      <c r="K40">
+        <v>196</v>
+      </c>
+      <c r="L40">
+        <v>196</v>
+      </c>
+      <c r="M40">
+        <v>236</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>181</v>
+      </c>
+      <c r="B41">
+        <v>183</v>
+      </c>
+      <c r="C41">
+        <v>218</v>
+      </c>
+      <c r="D41">
+        <v>230</v>
+      </c>
+      <c r="E41">
+        <v>242</v>
+      </c>
+      <c r="F41">
+        <v>209</v>
+      </c>
+      <c r="G41">
+        <v>191</v>
+      </c>
+      <c r="H41">
+        <v>172</v>
+      </c>
+      <c r="I41">
+        <v>194</v>
+      </c>
+      <c r="J41">
+        <v>196</v>
+      </c>
+      <c r="K41">
+        <v>196</v>
+      </c>
+      <c r="L41">
+        <v>236</v>
+      </c>
+      <c r="M41">
+        <v>235</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>183</v>
+      </c>
+      <c r="B42">
+        <v>218</v>
+      </c>
+      <c r="C42">
+        <v>230</v>
+      </c>
+      <c r="D42">
+        <v>242</v>
+      </c>
+      <c r="E42">
+        <v>209</v>
+      </c>
+      <c r="F42">
+        <v>191</v>
+      </c>
+      <c r="G42">
+        <v>172</v>
+      </c>
+      <c r="H42">
+        <v>194</v>
+      </c>
+      <c r="I42">
+        <v>196</v>
+      </c>
+      <c r="J42">
+        <v>196</v>
+      </c>
+      <c r="K42">
+        <v>236</v>
+      </c>
+      <c r="L42">
+        <v>235</v>
+      </c>
+      <c r="M42">
+        <v>229</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>218</v>
+      </c>
+      <c r="B43">
+        <v>230</v>
+      </c>
+      <c r="C43">
+        <v>242</v>
+      </c>
+      <c r="D43">
+        <v>209</v>
+      </c>
+      <c r="E43">
+        <v>191</v>
+      </c>
+      <c r="F43">
+        <v>172</v>
+      </c>
+      <c r="G43">
+        <v>194</v>
+      </c>
+      <c r="H43">
+        <v>196</v>
+      </c>
+      <c r="I43">
+        <v>196</v>
+      </c>
+      <c r="J43">
+        <v>236</v>
+      </c>
+      <c r="K43">
+        <v>235</v>
+      </c>
+      <c r="L43">
+        <v>229</v>
+      </c>
+      <c r="M43">
+        <v>243</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>230</v>
+      </c>
+      <c r="B44">
+        <v>242</v>
+      </c>
+      <c r="C44">
+        <v>209</v>
+      </c>
+      <c r="D44">
+        <v>191</v>
+      </c>
+      <c r="E44">
+        <v>172</v>
+      </c>
+      <c r="F44">
+        <v>194</v>
+      </c>
+      <c r="G44">
+        <v>196</v>
+      </c>
+      <c r="H44">
+        <v>196</v>
+      </c>
+      <c r="I44">
+        <v>236</v>
+      </c>
+      <c r="J44">
+        <v>235</v>
+      </c>
+      <c r="K44">
+        <v>229</v>
+      </c>
+      <c r="L44">
+        <v>243</v>
+      </c>
+      <c r="M44">
+        <v>264</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>242</v>
+      </c>
+      <c r="B45">
+        <v>209</v>
+      </c>
+      <c r="C45">
+        <v>191</v>
+      </c>
+      <c r="D45">
+        <v>172</v>
+      </c>
+      <c r="E45">
+        <v>194</v>
+      </c>
+      <c r="F45">
+        <v>196</v>
+      </c>
+      <c r="G45">
+        <v>196</v>
+      </c>
+      <c r="H45">
+        <v>236</v>
+      </c>
+      <c r="I45">
+        <v>235</v>
+      </c>
+      <c r="J45">
+        <v>229</v>
+      </c>
+      <c r="K45">
+        <v>243</v>
+      </c>
+      <c r="L45">
+        <v>264</v>
+      </c>
+      <c r="M45">
+        <v>272</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="1"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>209</v>
+      </c>
+      <c r="B46">
+        <v>191</v>
+      </c>
+      <c r="C46">
+        <v>172</v>
+      </c>
+      <c r="D46">
+        <v>194</v>
+      </c>
+      <c r="E46">
+        <v>196</v>
+      </c>
+      <c r="F46">
+        <v>196</v>
+      </c>
+      <c r="G46">
+        <v>236</v>
+      </c>
+      <c r="H46">
+        <v>235</v>
+      </c>
+      <c r="I46">
+        <v>229</v>
+      </c>
+      <c r="J46">
+        <v>243</v>
+      </c>
+      <c r="K46">
+        <v>264</v>
+      </c>
+      <c r="L46">
+        <v>272</v>
+      </c>
+      <c r="M46">
+        <v>237</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>191</v>
+      </c>
+      <c r="B47">
+        <v>172</v>
+      </c>
+      <c r="C47">
+        <v>194</v>
+      </c>
+      <c r="D47">
+        <v>196</v>
+      </c>
+      <c r="E47">
+        <v>196</v>
+      </c>
+      <c r="F47">
+        <v>236</v>
+      </c>
+      <c r="G47">
+        <v>235</v>
+      </c>
+      <c r="H47">
+        <v>229</v>
+      </c>
+      <c r="I47">
+        <v>243</v>
+      </c>
+      <c r="J47">
+        <v>264</v>
+      </c>
+      <c r="K47">
+        <v>272</v>
+      </c>
+      <c r="L47">
+        <v>237</v>
+      </c>
+      <c r="M47">
+        <v>211</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>172</v>
+      </c>
+      <c r="B48">
+        <v>194</v>
+      </c>
+      <c r="C48">
+        <v>196</v>
+      </c>
+      <c r="D48">
+        <v>196</v>
+      </c>
+      <c r="E48">
+        <v>236</v>
+      </c>
+      <c r="F48">
+        <v>235</v>
+      </c>
+      <c r="G48">
+        <v>229</v>
+      </c>
+      <c r="H48">
+        <v>243</v>
+      </c>
+      <c r="I48">
+        <v>264</v>
+      </c>
+      <c r="J48">
+        <v>272</v>
+      </c>
+      <c r="K48">
+        <v>237</v>
+      </c>
+      <c r="L48">
+        <v>211</v>
+      </c>
+      <c r="M48">
+        <v>180</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>194</v>
+      </c>
+      <c r="B49">
+        <v>196</v>
+      </c>
+      <c r="C49">
+        <v>196</v>
+      </c>
+      <c r="D49">
+        <v>236</v>
+      </c>
+      <c r="E49">
+        <v>235</v>
+      </c>
+      <c r="F49">
+        <v>229</v>
+      </c>
+      <c r="G49">
+        <v>243</v>
+      </c>
+      <c r="H49">
+        <v>264</v>
+      </c>
+      <c r="I49">
+        <v>272</v>
+      </c>
+      <c r="J49">
+        <v>237</v>
+      </c>
+      <c r="K49">
+        <v>211</v>
+      </c>
+      <c r="L49">
+        <v>180</v>
+      </c>
+      <c r="M49">
+        <v>201</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>196</v>
+      </c>
+      <c r="B50">
+        <v>196</v>
+      </c>
+      <c r="C50">
+        <v>236</v>
+      </c>
+      <c r="D50">
+        <v>235</v>
+      </c>
+      <c r="E50">
+        <v>229</v>
+      </c>
+      <c r="F50">
+        <v>243</v>
+      </c>
+      <c r="G50">
+        <v>264</v>
+      </c>
+      <c r="H50">
+        <v>272</v>
+      </c>
+      <c r="I50">
+        <v>237</v>
+      </c>
+      <c r="J50">
+        <v>211</v>
+      </c>
+      <c r="K50">
+        <v>180</v>
+      </c>
+      <c r="L50">
+        <v>201</v>
+      </c>
+      <c r="M50">
+        <v>204</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>196</v>
+      </c>
+      <c r="B51">
+        <v>236</v>
+      </c>
+      <c r="C51">
+        <v>235</v>
+      </c>
+      <c r="D51">
+        <v>229</v>
+      </c>
+      <c r="E51">
+        <v>243</v>
+      </c>
+      <c r="F51">
+        <v>264</v>
+      </c>
+      <c r="G51">
+        <v>272</v>
+      </c>
+      <c r="H51">
+        <v>237</v>
+      </c>
+      <c r="I51">
+        <v>211</v>
+      </c>
+      <c r="J51">
+        <v>180</v>
+      </c>
+      <c r="K51">
+        <v>201</v>
+      </c>
+      <c r="L51">
+        <v>204</v>
+      </c>
+      <c r="M51">
+        <v>188</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>236</v>
+      </c>
+      <c r="B52">
+        <v>235</v>
+      </c>
+      <c r="C52">
+        <v>229</v>
+      </c>
+      <c r="D52">
+        <v>243</v>
+      </c>
+      <c r="E52">
+        <v>264</v>
+      </c>
+      <c r="F52">
+        <v>272</v>
+      </c>
+      <c r="G52">
+        <v>237</v>
+      </c>
+      <c r="H52">
+        <v>211</v>
+      </c>
+      <c r="I52">
+        <v>180</v>
+      </c>
+      <c r="J52">
+        <v>201</v>
+      </c>
+      <c r="K52">
+        <v>204</v>
+      </c>
+      <c r="L52">
+        <v>188</v>
+      </c>
+      <c r="M52">
+        <v>235</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>235</v>
+      </c>
+      <c r="B53">
+        <v>229</v>
+      </c>
+      <c r="C53">
+        <v>243</v>
+      </c>
+      <c r="D53">
+        <v>264</v>
+      </c>
+      <c r="E53">
+        <v>272</v>
+      </c>
+      <c r="F53">
+        <v>237</v>
+      </c>
+      <c r="G53">
+        <v>211</v>
+      </c>
+      <c r="H53">
+        <v>180</v>
+      </c>
+      <c r="I53">
+        <v>201</v>
+      </c>
+      <c r="J53">
+        <v>204</v>
+      </c>
+      <c r="K53">
+        <v>188</v>
+      </c>
+      <c r="L53">
+        <v>235</v>
+      </c>
+      <c r="M53">
+        <v>227</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>229</v>
+      </c>
+      <c r="B54">
+        <v>243</v>
+      </c>
+      <c r="C54">
+        <v>264</v>
+      </c>
+      <c r="D54">
+        <v>272</v>
+      </c>
+      <c r="E54">
+        <v>237</v>
+      </c>
+      <c r="F54">
+        <v>211</v>
+      </c>
+      <c r="G54">
+        <v>180</v>
+      </c>
+      <c r="H54">
+        <v>201</v>
+      </c>
+      <c r="I54">
+        <v>204</v>
+      </c>
+      <c r="J54">
+        <v>188</v>
+      </c>
+      <c r="K54">
+        <v>235</v>
+      </c>
+      <c r="L54">
+        <v>227</v>
+      </c>
+      <c r="M54">
+        <v>234</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>243</v>
+      </c>
+      <c r="B55">
+        <v>264</v>
+      </c>
+      <c r="C55">
+        <v>272</v>
+      </c>
+      <c r="D55">
+        <v>237</v>
+      </c>
+      <c r="E55">
+        <v>211</v>
+      </c>
+      <c r="F55">
+        <v>180</v>
+      </c>
+      <c r="G55">
+        <v>201</v>
+      </c>
+      <c r="H55">
+        <v>204</v>
+      </c>
+      <c r="I55">
+        <v>188</v>
+      </c>
+      <c r="J55">
+        <v>235</v>
+      </c>
+      <c r="K55">
+        <v>227</v>
+      </c>
+      <c r="L55">
+        <v>234</v>
+      </c>
+      <c r="M55">
+        <v>264</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>264</v>
+      </c>
+      <c r="B56">
+        <v>272</v>
+      </c>
+      <c r="C56">
+        <v>237</v>
+      </c>
+      <c r="D56">
+        <v>211</v>
+      </c>
+      <c r="E56">
+        <v>180</v>
+      </c>
+      <c r="F56">
+        <v>201</v>
+      </c>
+      <c r="G56">
+        <v>204</v>
+      </c>
+      <c r="H56">
+        <v>188</v>
+      </c>
+      <c r="I56">
+        <v>235</v>
+      </c>
+      <c r="J56">
+        <v>227</v>
+      </c>
+      <c r="K56">
+        <v>234</v>
+      </c>
+      <c r="L56">
+        <v>264</v>
+      </c>
+      <c r="M56">
+        <v>302</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="1"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>272</v>
+      </c>
+      <c r="B57">
+        <v>237</v>
+      </c>
+      <c r="C57">
+        <v>211</v>
+      </c>
+      <c r="D57">
+        <v>180</v>
+      </c>
+      <c r="E57">
+        <v>201</v>
+      </c>
+      <c r="F57">
+        <v>204</v>
+      </c>
+      <c r="G57">
+        <v>188</v>
+      </c>
+      <c r="H57">
+        <v>235</v>
+      </c>
+      <c r="I57">
+        <v>227</v>
+      </c>
+      <c r="J57">
+        <v>234</v>
+      </c>
+      <c r="K57">
+        <v>264</v>
+      </c>
+      <c r="L57">
+        <v>302</v>
+      </c>
+      <c r="M57">
+        <v>293</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="1"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>237</v>
+      </c>
+      <c r="B58">
+        <v>211</v>
+      </c>
+      <c r="C58">
+        <v>180</v>
+      </c>
+      <c r="D58">
+        <v>201</v>
+      </c>
+      <c r="E58">
+        <v>204</v>
+      </c>
+      <c r="F58">
+        <v>188</v>
+      </c>
+      <c r="G58">
+        <v>235</v>
+      </c>
+      <c r="H58">
+        <v>227</v>
+      </c>
+      <c r="I58">
+        <v>234</v>
+      </c>
+      <c r="J58">
+        <v>264</v>
+      </c>
+      <c r="K58">
+        <v>302</v>
+      </c>
+      <c r="L58">
+        <v>293</v>
+      </c>
+      <c r="M58">
+        <v>259</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>211</v>
+      </c>
+      <c r="B59">
+        <v>180</v>
+      </c>
+      <c r="C59">
+        <v>201</v>
+      </c>
+      <c r="D59">
+        <v>204</v>
+      </c>
+      <c r="E59">
+        <v>188</v>
+      </c>
+      <c r="F59">
+        <v>235</v>
+      </c>
+      <c r="G59">
+        <v>227</v>
+      </c>
+      <c r="H59">
+        <v>234</v>
+      </c>
+      <c r="I59">
+        <v>264</v>
+      </c>
+      <c r="J59">
+        <v>302</v>
+      </c>
+      <c r="K59">
+        <v>293</v>
+      </c>
+      <c r="L59">
+        <v>259</v>
+      </c>
+      <c r="M59">
+        <v>229</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>180</v>
+      </c>
+      <c r="B60">
+        <v>201</v>
+      </c>
+      <c r="C60">
+        <v>204</v>
+      </c>
+      <c r="D60">
+        <v>188</v>
+      </c>
+      <c r="E60">
+        <v>235</v>
+      </c>
+      <c r="F60">
+        <v>227</v>
+      </c>
+      <c r="G60">
+        <v>234</v>
+      </c>
+      <c r="H60">
+        <v>264</v>
+      </c>
+      <c r="I60">
+        <v>302</v>
+      </c>
+      <c r="J60">
+        <v>293</v>
+      </c>
+      <c r="K60">
+        <v>259</v>
+      </c>
+      <c r="L60">
+        <v>229</v>
+      </c>
+      <c r="M60">
+        <v>203</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>201</v>
+      </c>
+      <c r="B61">
+        <v>204</v>
+      </c>
+      <c r="C61">
+        <v>188</v>
+      </c>
+      <c r="D61">
+        <v>235</v>
+      </c>
+      <c r="E61">
+        <v>227</v>
+      </c>
+      <c r="F61">
+        <v>234</v>
+      </c>
+      <c r="G61">
+        <v>264</v>
+      </c>
+      <c r="H61">
+        <v>302</v>
+      </c>
+      <c r="I61">
+        <v>293</v>
+      </c>
+      <c r="J61">
+        <v>259</v>
+      </c>
+      <c r="K61">
+        <v>229</v>
+      </c>
+      <c r="L61">
+        <v>203</v>
+      </c>
+      <c r="M61">
+        <v>229</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>204</v>
+      </c>
+      <c r="B62">
+        <v>188</v>
+      </c>
+      <c r="C62">
+        <v>235</v>
+      </c>
+      <c r="D62">
+        <v>227</v>
+      </c>
+      <c r="E62">
+        <v>234</v>
+      </c>
+      <c r="F62">
+        <v>264</v>
+      </c>
+      <c r="G62">
+        <v>302</v>
+      </c>
+      <c r="H62">
+        <v>293</v>
+      </c>
+      <c r="I62">
+        <v>259</v>
+      </c>
+      <c r="J62">
+        <v>229</v>
+      </c>
+      <c r="K62">
+        <v>203</v>
+      </c>
+      <c r="L62">
+        <v>229</v>
+      </c>
+      <c r="M62">
+        <v>242</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>188</v>
+      </c>
+      <c r="B63">
+        <v>235</v>
+      </c>
+      <c r="C63">
+        <v>227</v>
+      </c>
+      <c r="D63">
+        <v>234</v>
+      </c>
+      <c r="E63">
+        <v>264</v>
+      </c>
+      <c r="F63">
+        <v>302</v>
+      </c>
+      <c r="G63">
+        <v>293</v>
+      </c>
+      <c r="H63">
+        <v>259</v>
+      </c>
+      <c r="I63">
+        <v>229</v>
+      </c>
+      <c r="J63">
+        <v>203</v>
+      </c>
+      <c r="K63">
+        <v>229</v>
+      </c>
+      <c r="L63">
+        <v>242</v>
+      </c>
+      <c r="M63">
+        <v>233</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>235</v>
+      </c>
+      <c r="B64">
+        <v>227</v>
+      </c>
+      <c r="C64">
+        <v>234</v>
+      </c>
+      <c r="D64">
+        <v>264</v>
+      </c>
+      <c r="E64">
+        <v>302</v>
+      </c>
+      <c r="F64">
+        <v>293</v>
+      </c>
+      <c r="G64">
+        <v>259</v>
+      </c>
+      <c r="H64">
+        <v>229</v>
+      </c>
+      <c r="I64">
+        <v>203</v>
+      </c>
+      <c r="J64">
+        <v>229</v>
+      </c>
+      <c r="K64">
+        <v>242</v>
+      </c>
+      <c r="L64">
+        <v>233</v>
+      </c>
+      <c r="M64">
+        <v>267</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="1"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>227</v>
+      </c>
+      <c r="B65">
+        <v>234</v>
+      </c>
+      <c r="C65">
+        <v>264</v>
+      </c>
+      <c r="D65">
+        <v>302</v>
+      </c>
+      <c r="E65">
+        <v>293</v>
+      </c>
+      <c r="F65">
+        <v>259</v>
+      </c>
+      <c r="G65">
+        <v>229</v>
+      </c>
+      <c r="H65">
+        <v>203</v>
+      </c>
+      <c r="I65">
+        <v>229</v>
+      </c>
+      <c r="J65">
+        <v>242</v>
+      </c>
+      <c r="K65">
+        <v>233</v>
+      </c>
+      <c r="L65">
+        <v>267</v>
+      </c>
+      <c r="M65">
+        <v>269</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="1"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>234</v>
+      </c>
+      <c r="B66">
+        <v>264</v>
+      </c>
+      <c r="C66">
+        <v>302</v>
+      </c>
+      <c r="D66">
+        <v>293</v>
+      </c>
+      <c r="E66">
+        <v>259</v>
+      </c>
+      <c r="F66">
+        <v>229</v>
+      </c>
+      <c r="G66">
+        <v>203</v>
+      </c>
+      <c r="H66">
+        <v>229</v>
+      </c>
+      <c r="I66">
+        <v>242</v>
+      </c>
+      <c r="J66">
+        <v>233</v>
+      </c>
+      <c r="K66">
+        <v>267</v>
+      </c>
+      <c r="L66">
+        <v>269</v>
+      </c>
+      <c r="M66">
+        <v>270</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="1"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>264</v>
+      </c>
+      <c r="B67">
+        <v>302</v>
+      </c>
+      <c r="C67">
+        <v>293</v>
+      </c>
+      <c r="D67">
+        <v>259</v>
+      </c>
+      <c r="E67">
+        <v>229</v>
+      </c>
+      <c r="F67">
+        <v>203</v>
+      </c>
+      <c r="G67">
+        <v>229</v>
+      </c>
+      <c r="H67">
+        <v>242</v>
+      </c>
+      <c r="I67">
+        <v>233</v>
+      </c>
+      <c r="J67">
+        <v>267</v>
+      </c>
+      <c r="K67">
+        <v>269</v>
+      </c>
+      <c r="L67">
+        <v>270</v>
+      </c>
+      <c r="M67">
+        <v>315</v>
+      </c>
+      <c r="W67">
+        <f t="shared" ref="W67:W130" si="2">IF(AND(M67&gt;=$P$2,M67&lt;$P$3),$Q$2,IF(AND(M67&gt;=$P$3,M67&lt;$P$4),$Q$3,IF(AND(M67&gt;=$P$4,M67&lt;$P$5),$Q$4,$Q$5)))</f>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>302</v>
+      </c>
+      <c r="B68">
+        <v>293</v>
+      </c>
+      <c r="C68">
+        <v>259</v>
+      </c>
+      <c r="D68">
+        <v>229</v>
+      </c>
+      <c r="E68">
+        <v>203</v>
+      </c>
+      <c r="F68">
+        <v>229</v>
+      </c>
+      <c r="G68">
+        <v>242</v>
+      </c>
+      <c r="H68">
+        <v>233</v>
+      </c>
+      <c r="I68">
+        <v>267</v>
+      </c>
+      <c r="J68">
+        <v>269</v>
+      </c>
+      <c r="K68">
+        <v>270</v>
+      </c>
+      <c r="L68">
+        <v>315</v>
+      </c>
+      <c r="M68">
+        <v>364</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>293</v>
+      </c>
+      <c r="B69">
+        <v>259</v>
+      </c>
+      <c r="C69">
+        <v>229</v>
+      </c>
+      <c r="D69">
+        <v>203</v>
+      </c>
+      <c r="E69">
+        <v>229</v>
+      </c>
+      <c r="F69">
+        <v>242</v>
+      </c>
+      <c r="G69">
+        <v>233</v>
+      </c>
+      <c r="H69">
+        <v>267</v>
+      </c>
+      <c r="I69">
+        <v>269</v>
+      </c>
+      <c r="J69">
+        <v>270</v>
+      </c>
+      <c r="K69">
+        <v>315</v>
+      </c>
+      <c r="L69">
+        <v>364</v>
+      </c>
+      <c r="M69">
+        <v>347</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>259</v>
+      </c>
+      <c r="B70">
+        <v>229</v>
+      </c>
+      <c r="C70">
+        <v>203</v>
+      </c>
+      <c r="D70">
+        <v>229</v>
+      </c>
+      <c r="E70">
+        <v>242</v>
+      </c>
+      <c r="F70">
+        <v>233</v>
+      </c>
+      <c r="G70">
+        <v>267</v>
+      </c>
+      <c r="H70">
+        <v>269</v>
+      </c>
+      <c r="I70">
+        <v>270</v>
+      </c>
+      <c r="J70">
+        <v>315</v>
+      </c>
+      <c r="K70">
+        <v>364</v>
+      </c>
+      <c r="L70">
+        <v>347</v>
+      </c>
+      <c r="M70">
+        <v>312</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>229</v>
+      </c>
+      <c r="B71">
+        <v>203</v>
+      </c>
+      <c r="C71">
+        <v>229</v>
+      </c>
+      <c r="D71">
+        <v>242</v>
+      </c>
+      <c r="E71">
+        <v>233</v>
+      </c>
+      <c r="F71">
+        <v>267</v>
+      </c>
+      <c r="G71">
+        <v>269</v>
+      </c>
+      <c r="H71">
+        <v>270</v>
+      </c>
+      <c r="I71">
+        <v>315</v>
+      </c>
+      <c r="J71">
+        <v>364</v>
+      </c>
+      <c r="K71">
+        <v>347</v>
+      </c>
+      <c r="L71">
+        <v>312</v>
+      </c>
+      <c r="M71">
+        <v>274</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>203</v>
+      </c>
+      <c r="B72">
+        <v>229</v>
+      </c>
+      <c r="C72">
+        <v>242</v>
+      </c>
+      <c r="D72">
+        <v>233</v>
+      </c>
+      <c r="E72">
+        <v>267</v>
+      </c>
+      <c r="F72">
+        <v>269</v>
+      </c>
+      <c r="G72">
+        <v>270</v>
+      </c>
+      <c r="H72">
+        <v>315</v>
+      </c>
+      <c r="I72">
+        <v>364</v>
+      </c>
+      <c r="J72">
+        <v>347</v>
+      </c>
+      <c r="K72">
+        <v>312</v>
+      </c>
+      <c r="L72">
+        <v>274</v>
+      </c>
+      <c r="M72">
+        <v>237</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>229</v>
+      </c>
+      <c r="B73">
+        <v>242</v>
+      </c>
+      <c r="C73">
+        <v>233</v>
+      </c>
+      <c r="D73">
+        <v>267</v>
+      </c>
+      <c r="E73">
+        <v>269</v>
+      </c>
+      <c r="F73">
+        <v>270</v>
+      </c>
+      <c r="G73">
+        <v>315</v>
+      </c>
+      <c r="H73">
+        <v>364</v>
+      </c>
+      <c r="I73">
+        <v>347</v>
+      </c>
+      <c r="J73">
+        <v>312</v>
+      </c>
+      <c r="K73">
+        <v>274</v>
+      </c>
+      <c r="L73">
+        <v>237</v>
+      </c>
+      <c r="M73">
+        <v>278</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>242</v>
+      </c>
+      <c r="B74">
+        <v>233</v>
+      </c>
+      <c r="C74">
+        <v>267</v>
+      </c>
+      <c r="D74">
+        <v>269</v>
+      </c>
+      <c r="E74">
+        <v>270</v>
+      </c>
+      <c r="F74">
+        <v>315</v>
+      </c>
+      <c r="G74">
+        <v>364</v>
+      </c>
+      <c r="H74">
+        <v>347</v>
+      </c>
+      <c r="I74">
+        <v>312</v>
+      </c>
+      <c r="J74">
+        <v>274</v>
+      </c>
+      <c r="K74">
+        <v>237</v>
+      </c>
+      <c r="L74">
+        <v>278</v>
+      </c>
+      <c r="M74">
+        <v>284</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>233</v>
+      </c>
+      <c r="B75">
+        <v>267</v>
+      </c>
+      <c r="C75">
+        <v>269</v>
+      </c>
+      <c r="D75">
+        <v>270</v>
+      </c>
+      <c r="E75">
+        <v>315</v>
+      </c>
+      <c r="F75">
+        <v>364</v>
+      </c>
+      <c r="G75">
+        <v>347</v>
+      </c>
+      <c r="H75">
+        <v>312</v>
+      </c>
+      <c r="I75">
+        <v>274</v>
+      </c>
+      <c r="J75">
+        <v>237</v>
+      </c>
+      <c r="K75">
+        <v>278</v>
+      </c>
+      <c r="L75">
+        <v>284</v>
+      </c>
+      <c r="M75">
+        <v>277</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>267</v>
+      </c>
+      <c r="B76">
+        <v>269</v>
+      </c>
+      <c r="C76">
+        <v>270</v>
+      </c>
+      <c r="D76">
+        <v>315</v>
+      </c>
+      <c r="E76">
+        <v>364</v>
+      </c>
+      <c r="F76">
+        <v>347</v>
+      </c>
+      <c r="G76">
+        <v>312</v>
+      </c>
+      <c r="H76">
+        <v>274</v>
+      </c>
+      <c r="I76">
+        <v>237</v>
+      </c>
+      <c r="J76">
+        <v>278</v>
+      </c>
+      <c r="K76">
+        <v>284</v>
+      </c>
+      <c r="L76">
+        <v>277</v>
+      </c>
+      <c r="M76">
+        <v>317</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>269</v>
+      </c>
+      <c r="B77">
+        <v>270</v>
+      </c>
+      <c r="C77">
+        <v>315</v>
+      </c>
+      <c r="D77">
+        <v>364</v>
+      </c>
+      <c r="E77">
+        <v>347</v>
+      </c>
+      <c r="F77">
+        <v>312</v>
+      </c>
+      <c r="G77">
+        <v>274</v>
+      </c>
+      <c r="H77">
+        <v>237</v>
+      </c>
+      <c r="I77">
+        <v>278</v>
+      </c>
+      <c r="J77">
+        <v>284</v>
+      </c>
+      <c r="K77">
+        <v>277</v>
+      </c>
+      <c r="L77">
+        <v>317</v>
+      </c>
+      <c r="M77">
+        <v>313</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>270</v>
+      </c>
+      <c r="B78">
+        <v>315</v>
+      </c>
+      <c r="C78">
+        <v>364</v>
+      </c>
+      <c r="D78">
+        <v>347</v>
+      </c>
+      <c r="E78">
+        <v>312</v>
+      </c>
+      <c r="F78">
+        <v>274</v>
+      </c>
+      <c r="G78">
+        <v>237</v>
+      </c>
+      <c r="H78">
+        <v>278</v>
+      </c>
+      <c r="I78">
+        <v>284</v>
+      </c>
+      <c r="J78">
+        <v>277</v>
+      </c>
+      <c r="K78">
+        <v>317</v>
+      </c>
+      <c r="L78">
+        <v>313</v>
+      </c>
+      <c r="M78">
+        <v>318</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>315</v>
+      </c>
+      <c r="B79">
+        <v>364</v>
+      </c>
+      <c r="C79">
+        <v>347</v>
+      </c>
+      <c r="D79">
+        <v>312</v>
+      </c>
+      <c r="E79">
+        <v>274</v>
+      </c>
+      <c r="F79">
+        <v>237</v>
+      </c>
+      <c r="G79">
+        <v>278</v>
+      </c>
+      <c r="H79">
+        <v>284</v>
+      </c>
+      <c r="I79">
+        <v>277</v>
+      </c>
+      <c r="J79">
+        <v>317</v>
+      </c>
+      <c r="K79">
+        <v>313</v>
+      </c>
+      <c r="L79">
+        <v>318</v>
+      </c>
+      <c r="M79">
+        <v>374</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>364</v>
+      </c>
+      <c r="B80">
+        <v>347</v>
+      </c>
+      <c r="C80">
+        <v>312</v>
+      </c>
+      <c r="D80">
+        <v>274</v>
+      </c>
+      <c r="E80">
+        <v>237</v>
+      </c>
+      <c r="F80">
+        <v>278</v>
+      </c>
+      <c r="G80">
+        <v>284</v>
+      </c>
+      <c r="H80">
+        <v>277</v>
+      </c>
+      <c r="I80">
+        <v>317</v>
+      </c>
+      <c r="J80">
+        <v>313</v>
+      </c>
+      <c r="K80">
+        <v>318</v>
+      </c>
+      <c r="L80">
+        <v>374</v>
+      </c>
+      <c r="M80">
+        <v>413</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>347</v>
+      </c>
+      <c r="B81">
+        <v>312</v>
+      </c>
+      <c r="C81">
+        <v>274</v>
+      </c>
+      <c r="D81">
+        <v>237</v>
+      </c>
+      <c r="E81">
+        <v>278</v>
+      </c>
+      <c r="F81">
+        <v>284</v>
+      </c>
+      <c r="G81">
+        <v>277</v>
+      </c>
+      <c r="H81">
+        <v>317</v>
+      </c>
+      <c r="I81">
+        <v>313</v>
+      </c>
+      <c r="J81">
+        <v>318</v>
+      </c>
+      <c r="K81">
+        <v>374</v>
+      </c>
+      <c r="L81">
+        <v>413</v>
+      </c>
+      <c r="M81">
+        <v>405</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>312</v>
+      </c>
+      <c r="B82">
+        <v>274</v>
+      </c>
+      <c r="C82">
+        <v>237</v>
+      </c>
+      <c r="D82">
+        <v>278</v>
+      </c>
+      <c r="E82">
+        <v>284</v>
+      </c>
+      <c r="F82">
+        <v>277</v>
+      </c>
+      <c r="G82">
+        <v>317</v>
+      </c>
+      <c r="H82">
+        <v>313</v>
+      </c>
+      <c r="I82">
+        <v>318</v>
+      </c>
+      <c r="J82">
+        <v>374</v>
+      </c>
+      <c r="K82">
+        <v>413</v>
+      </c>
+      <c r="L82">
+        <v>405</v>
+      </c>
+      <c r="M82">
+        <v>355</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>274</v>
+      </c>
+      <c r="B83">
+        <v>237</v>
+      </c>
+      <c r="C83">
+        <v>278</v>
+      </c>
+      <c r="D83">
+        <v>284</v>
+      </c>
+      <c r="E83">
+        <v>277</v>
+      </c>
+      <c r="F83">
+        <v>317</v>
+      </c>
+      <c r="G83">
+        <v>313</v>
+      </c>
+      <c r="H83">
+        <v>318</v>
+      </c>
+      <c r="I83">
+        <v>374</v>
+      </c>
+      <c r="J83">
+        <v>413</v>
+      </c>
+      <c r="K83">
+        <v>405</v>
+      </c>
+      <c r="L83">
+        <v>355</v>
+      </c>
+      <c r="M83">
+        <v>306</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>237</v>
+      </c>
+      <c r="B84">
+        <v>278</v>
+      </c>
+      <c r="C84">
+        <v>284</v>
+      </c>
+      <c r="D84">
+        <v>277</v>
+      </c>
+      <c r="E84">
+        <v>317</v>
+      </c>
+      <c r="F84">
+        <v>313</v>
+      </c>
+      <c r="G84">
+        <v>318</v>
+      </c>
+      <c r="H84">
+        <v>374</v>
+      </c>
+      <c r="I84">
+        <v>413</v>
+      </c>
+      <c r="J84">
+        <v>405</v>
+      </c>
+      <c r="K84">
+        <v>355</v>
+      </c>
+      <c r="L84">
+        <v>306</v>
+      </c>
+      <c r="M84">
+        <v>271</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>278</v>
+      </c>
+      <c r="B85">
+        <v>284</v>
+      </c>
+      <c r="C85">
+        <v>277</v>
+      </c>
+      <c r="D85">
+        <v>317</v>
+      </c>
+      <c r="E85">
+        <v>313</v>
+      </c>
+      <c r="F85">
+        <v>318</v>
+      </c>
+      <c r="G85">
+        <v>374</v>
+      </c>
+      <c r="H85">
+        <v>413</v>
+      </c>
+      <c r="I85">
+        <v>405</v>
+      </c>
+      <c r="J85">
+        <v>355</v>
+      </c>
+      <c r="K85">
+        <v>306</v>
+      </c>
+      <c r="L85">
+        <v>271</v>
+      </c>
+      <c r="M85">
+        <v>306</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>284</v>
+      </c>
+      <c r="B86">
+        <v>277</v>
+      </c>
+      <c r="C86">
+        <v>317</v>
+      </c>
+      <c r="D86">
+        <v>313</v>
+      </c>
+      <c r="E86">
+        <v>318</v>
+      </c>
+      <c r="F86">
+        <v>374</v>
+      </c>
+      <c r="G86">
+        <v>413</v>
+      </c>
+      <c r="H86">
+        <v>405</v>
+      </c>
+      <c r="I86">
+        <v>355</v>
+      </c>
+      <c r="J86">
+        <v>306</v>
+      </c>
+      <c r="K86">
+        <v>271</v>
+      </c>
+      <c r="L86">
+        <v>306</v>
+      </c>
+      <c r="M86">
+        <v>315</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>277</v>
+      </c>
+      <c r="B87">
+        <v>317</v>
+      </c>
+      <c r="C87">
+        <v>313</v>
+      </c>
+      <c r="D87">
+        <v>318</v>
+      </c>
+      <c r="E87">
+        <v>374</v>
+      </c>
+      <c r="F87">
+        <v>413</v>
+      </c>
+      <c r="G87">
+        <v>405</v>
+      </c>
+      <c r="H87">
+        <v>355</v>
+      </c>
+      <c r="I87">
+        <v>306</v>
+      </c>
+      <c r="J87">
+        <v>271</v>
+      </c>
+      <c r="K87">
+        <v>306</v>
+      </c>
+      <c r="L87">
+        <v>315</v>
+      </c>
+      <c r="M87">
+        <v>301</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>317</v>
+      </c>
+      <c r="B88">
+        <v>313</v>
+      </c>
+      <c r="C88">
+        <v>318</v>
+      </c>
+      <c r="D88">
+        <v>374</v>
+      </c>
+      <c r="E88">
+        <v>413</v>
+      </c>
+      <c r="F88">
+        <v>405</v>
+      </c>
+      <c r="G88">
+        <v>355</v>
+      </c>
+      <c r="H88">
+        <v>306</v>
+      </c>
+      <c r="I88">
+        <v>271</v>
+      </c>
+      <c r="J88">
+        <v>306</v>
+      </c>
+      <c r="K88">
+        <v>315</v>
+      </c>
+      <c r="L88">
+        <v>301</v>
+      </c>
+      <c r="M88">
+        <v>356</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>313</v>
+      </c>
+      <c r="B89">
+        <v>318</v>
+      </c>
+      <c r="C89">
+        <v>374</v>
+      </c>
+      <c r="D89">
+        <v>413</v>
+      </c>
+      <c r="E89">
+        <v>405</v>
+      </c>
+      <c r="F89">
+        <v>355</v>
+      </c>
+      <c r="G89">
+        <v>306</v>
+      </c>
+      <c r="H89">
+        <v>271</v>
+      </c>
+      <c r="I89">
+        <v>306</v>
+      </c>
+      <c r="J89">
+        <v>315</v>
+      </c>
+      <c r="K89">
+        <v>301</v>
+      </c>
+      <c r="L89">
+        <v>356</v>
+      </c>
+      <c r="M89">
+        <v>348</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>318</v>
+      </c>
+      <c r="B90">
+        <v>374</v>
+      </c>
+      <c r="C90">
+        <v>413</v>
+      </c>
+      <c r="D90">
+        <v>405</v>
+      </c>
+      <c r="E90">
+        <v>355</v>
+      </c>
+      <c r="F90">
+        <v>306</v>
+      </c>
+      <c r="G90">
+        <v>271</v>
+      </c>
+      <c r="H90">
+        <v>306</v>
+      </c>
+      <c r="I90">
+        <v>315</v>
+      </c>
+      <c r="J90">
+        <v>301</v>
+      </c>
+      <c r="K90">
+        <v>356</v>
+      </c>
+      <c r="L90">
+        <v>348</v>
+      </c>
+      <c r="M90">
+        <v>355</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>374</v>
+      </c>
+      <c r="B91">
+        <v>413</v>
+      </c>
+      <c r="C91">
+        <v>405</v>
+      </c>
+      <c r="D91">
+        <v>355</v>
+      </c>
+      <c r="E91">
+        <v>306</v>
+      </c>
+      <c r="F91">
+        <v>271</v>
+      </c>
+      <c r="G91">
+        <v>306</v>
+      </c>
+      <c r="H91">
+        <v>315</v>
+      </c>
+      <c r="I91">
+        <v>301</v>
+      </c>
+      <c r="J91">
+        <v>356</v>
+      </c>
+      <c r="K91">
+        <v>348</v>
+      </c>
+      <c r="L91">
+        <v>355</v>
+      </c>
+      <c r="M91">
+        <v>422</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>413</v>
+      </c>
+      <c r="B92">
+        <v>405</v>
+      </c>
+      <c r="C92">
+        <v>355</v>
+      </c>
+      <c r="D92">
+        <v>306</v>
+      </c>
+      <c r="E92">
+        <v>271</v>
+      </c>
+      <c r="F92">
+        <v>306</v>
+      </c>
+      <c r="G92">
+        <v>315</v>
+      </c>
+      <c r="H92">
+        <v>301</v>
+      </c>
+      <c r="I92">
+        <v>356</v>
+      </c>
+      <c r="J92">
+        <v>348</v>
+      </c>
+      <c r="K92">
+        <v>355</v>
+      </c>
+      <c r="L92">
+        <v>422</v>
+      </c>
+      <c r="M92">
+        <v>465</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>405</v>
+      </c>
+      <c r="B93">
+        <v>355</v>
+      </c>
+      <c r="C93">
+        <v>306</v>
+      </c>
+      <c r="D93">
+        <v>271</v>
+      </c>
+      <c r="E93">
+        <v>306</v>
+      </c>
+      <c r="F93">
+        <v>315</v>
+      </c>
+      <c r="G93">
+        <v>301</v>
+      </c>
+      <c r="H93">
+        <v>356</v>
+      </c>
+      <c r="I93">
+        <v>348</v>
+      </c>
+      <c r="J93">
+        <v>355</v>
+      </c>
+      <c r="K93">
+        <v>422</v>
+      </c>
+      <c r="L93">
+        <v>465</v>
+      </c>
+      <c r="M93">
+        <v>467</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>355</v>
+      </c>
+      <c r="B94">
+        <v>306</v>
+      </c>
+      <c r="C94">
+        <v>271</v>
+      </c>
+      <c r="D94">
+        <v>306</v>
+      </c>
+      <c r="E94">
+        <v>315</v>
+      </c>
+      <c r="F94">
+        <v>301</v>
+      </c>
+      <c r="G94">
+        <v>356</v>
+      </c>
+      <c r="H94">
+        <v>348</v>
+      </c>
+      <c r="I94">
+        <v>355</v>
+      </c>
+      <c r="J94">
+        <v>422</v>
+      </c>
+      <c r="K94">
+        <v>465</v>
+      </c>
+      <c r="L94">
+        <v>467</v>
+      </c>
+      <c r="M94">
+        <v>404</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>306</v>
+      </c>
+      <c r="B95">
+        <v>271</v>
+      </c>
+      <c r="C95">
+        <v>306</v>
+      </c>
+      <c r="D95">
+        <v>315</v>
+      </c>
+      <c r="E95">
+        <v>301</v>
+      </c>
+      <c r="F95">
+        <v>356</v>
+      </c>
+      <c r="G95">
+        <v>348</v>
+      </c>
+      <c r="H95">
+        <v>355</v>
+      </c>
+      <c r="I95">
+        <v>422</v>
+      </c>
+      <c r="J95">
+        <v>465</v>
+      </c>
+      <c r="K95">
+        <v>467</v>
+      </c>
+      <c r="L95">
+        <v>404</v>
+      </c>
+      <c r="M95">
+        <v>347</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>271</v>
+      </c>
+      <c r="B96">
+        <v>306</v>
+      </c>
+      <c r="C96">
+        <v>315</v>
+      </c>
+      <c r="D96">
+        <v>301</v>
+      </c>
+      <c r="E96">
+        <v>356</v>
+      </c>
+      <c r="F96">
+        <v>348</v>
+      </c>
+      <c r="G96">
+        <v>355</v>
+      </c>
+      <c r="H96">
+        <v>422</v>
+      </c>
+      <c r="I96">
+        <v>465</v>
+      </c>
+      <c r="J96">
+        <v>467</v>
+      </c>
+      <c r="K96">
+        <v>404</v>
+      </c>
+      <c r="L96">
+        <v>347</v>
+      </c>
+      <c r="M96">
+        <v>305</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>306</v>
+      </c>
+      <c r="B97">
+        <v>315</v>
+      </c>
+      <c r="C97">
+        <v>301</v>
+      </c>
+      <c r="D97">
+        <v>356</v>
+      </c>
+      <c r="E97">
+        <v>348</v>
+      </c>
+      <c r="F97">
+        <v>355</v>
+      </c>
+      <c r="G97">
+        <v>422</v>
+      </c>
+      <c r="H97">
+        <v>465</v>
+      </c>
+      <c r="I97">
+        <v>467</v>
+      </c>
+      <c r="J97">
+        <v>404</v>
+      </c>
+      <c r="K97">
+        <v>347</v>
+      </c>
+      <c r="L97">
+        <v>305</v>
+      </c>
+      <c r="M97">
+        <v>336</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>315</v>
+      </c>
+      <c r="B98">
+        <v>301</v>
+      </c>
+      <c r="C98">
+        <v>356</v>
+      </c>
+      <c r="D98">
+        <v>348</v>
+      </c>
+      <c r="E98">
+        <v>355</v>
+      </c>
+      <c r="F98">
+        <v>422</v>
+      </c>
+      <c r="G98">
+        <v>465</v>
+      </c>
+      <c r="H98">
+        <v>467</v>
+      </c>
+      <c r="I98">
+        <v>404</v>
+      </c>
+      <c r="J98">
+        <v>347</v>
+      </c>
+      <c r="K98">
+        <v>305</v>
+      </c>
+      <c r="L98">
+        <v>336</v>
+      </c>
+      <c r="M98">
+        <v>340</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>301</v>
+      </c>
+      <c r="B99">
+        <v>356</v>
+      </c>
+      <c r="C99">
+        <v>348</v>
+      </c>
+      <c r="D99">
+        <v>355</v>
+      </c>
+      <c r="E99">
+        <v>422</v>
+      </c>
+      <c r="F99">
+        <v>465</v>
+      </c>
+      <c r="G99">
+        <v>467</v>
+      </c>
+      <c r="H99">
+        <v>404</v>
+      </c>
+      <c r="I99">
+        <v>347</v>
+      </c>
+      <c r="J99">
+        <v>305</v>
+      </c>
+      <c r="K99">
+        <v>336</v>
+      </c>
+      <c r="L99">
+        <v>340</v>
+      </c>
+      <c r="M99">
+        <v>318</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>356</v>
+      </c>
+      <c r="B100">
+        <v>348</v>
+      </c>
+      <c r="C100">
+        <v>355</v>
+      </c>
+      <c r="D100">
+        <v>422</v>
+      </c>
+      <c r="E100">
+        <v>465</v>
+      </c>
+      <c r="F100">
+        <v>467</v>
+      </c>
+      <c r="G100">
+        <v>404</v>
+      </c>
+      <c r="H100">
+        <v>347</v>
+      </c>
+      <c r="I100">
+        <v>305</v>
+      </c>
+      <c r="J100">
+        <v>336</v>
+      </c>
+      <c r="K100">
+        <v>340</v>
+      </c>
+      <c r="L100">
+        <v>318</v>
+      </c>
+      <c r="M100">
+        <v>362</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>348</v>
+      </c>
+      <c r="B101">
+        <v>355</v>
+      </c>
+      <c r="C101">
+        <v>422</v>
+      </c>
+      <c r="D101">
+        <v>465</v>
+      </c>
+      <c r="E101">
+        <v>467</v>
+      </c>
+      <c r="F101">
+        <v>404</v>
+      </c>
+      <c r="G101">
+        <v>347</v>
+      </c>
+      <c r="H101">
+        <v>305</v>
+      </c>
+      <c r="I101">
+        <v>336</v>
+      </c>
+      <c r="J101">
+        <v>340</v>
+      </c>
+      <c r="K101">
+        <v>318</v>
+      </c>
+      <c r="L101">
+        <v>362</v>
+      </c>
+      <c r="M101">
+        <v>348</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>355</v>
+      </c>
+      <c r="B102">
+        <v>422</v>
+      </c>
+      <c r="C102">
+        <v>465</v>
+      </c>
+      <c r="D102">
+        <v>467</v>
+      </c>
+      <c r="E102">
+        <v>404</v>
+      </c>
+      <c r="F102">
+        <v>347</v>
+      </c>
+      <c r="G102">
+        <v>305</v>
+      </c>
+      <c r="H102">
+        <v>336</v>
+      </c>
+      <c r="I102">
+        <v>340</v>
+      </c>
+      <c r="J102">
+        <v>318</v>
+      </c>
+      <c r="K102">
+        <v>362</v>
+      </c>
+      <c r="L102">
+        <v>348</v>
+      </c>
+      <c r="M102">
+        <v>363</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>422</v>
+      </c>
+      <c r="B103">
+        <v>465</v>
+      </c>
+      <c r="C103">
+        <v>467</v>
+      </c>
+      <c r="D103">
+        <v>404</v>
+      </c>
+      <c r="E103">
+        <v>347</v>
+      </c>
+      <c r="F103">
+        <v>305</v>
+      </c>
+      <c r="G103">
+        <v>336</v>
+      </c>
+      <c r="H103">
+        <v>340</v>
+      </c>
+      <c r="I103">
+        <v>318</v>
+      </c>
+      <c r="J103">
+        <v>362</v>
+      </c>
+      <c r="K103">
+        <v>348</v>
+      </c>
+      <c r="L103">
+        <v>363</v>
+      </c>
+      <c r="M103">
+        <v>435</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>465</v>
+      </c>
+      <c r="B104">
+        <v>467</v>
+      </c>
+      <c r="C104">
+        <v>404</v>
+      </c>
+      <c r="D104">
+        <v>347</v>
+      </c>
+      <c r="E104">
+        <v>305</v>
+      </c>
+      <c r="F104">
+        <v>336</v>
+      </c>
+      <c r="G104">
+        <v>340</v>
+      </c>
+      <c r="H104">
+        <v>318</v>
+      </c>
+      <c r="I104">
+        <v>362</v>
+      </c>
+      <c r="J104">
+        <v>348</v>
+      </c>
+      <c r="K104">
+        <v>363</v>
+      </c>
+      <c r="L104">
+        <v>435</v>
+      </c>
+      <c r="M104">
+        <v>491</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>467</v>
+      </c>
+      <c r="B105">
+        <v>404</v>
+      </c>
+      <c r="C105">
+        <v>347</v>
+      </c>
+      <c r="D105">
+        <v>305</v>
+      </c>
+      <c r="E105">
+        <v>336</v>
+      </c>
+      <c r="F105">
+        <v>340</v>
+      </c>
+      <c r="G105">
+        <v>318</v>
+      </c>
+      <c r="H105">
+        <v>362</v>
+      </c>
+      <c r="I105">
+        <v>348</v>
+      </c>
+      <c r="J105">
+        <v>363</v>
+      </c>
+      <c r="K105">
+        <v>435</v>
+      </c>
+      <c r="L105">
+        <v>491</v>
+      </c>
+      <c r="M105">
+        <v>505</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>404</v>
+      </c>
+      <c r="B106">
+        <v>347</v>
+      </c>
+      <c r="C106">
+        <v>305</v>
+      </c>
+      <c r="D106">
+        <v>336</v>
+      </c>
+      <c r="E106">
+        <v>340</v>
+      </c>
+      <c r="F106">
+        <v>318</v>
+      </c>
+      <c r="G106">
+        <v>362</v>
+      </c>
+      <c r="H106">
+        <v>348</v>
+      </c>
+      <c r="I106">
+        <v>363</v>
+      </c>
+      <c r="J106">
+        <v>435</v>
+      </c>
+      <c r="K106">
+        <v>491</v>
+      </c>
+      <c r="L106">
+        <v>505</v>
+      </c>
+      <c r="M106">
+        <v>404</v>
+      </c>
+      <c r="W106">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>347</v>
+      </c>
+      <c r="B107">
+        <v>305</v>
+      </c>
+      <c r="C107">
+        <v>336</v>
+      </c>
+      <c r="D107">
+        <v>340</v>
+      </c>
+      <c r="E107">
+        <v>318</v>
+      </c>
+      <c r="F107">
+        <v>362</v>
+      </c>
+      <c r="G107">
+        <v>348</v>
+      </c>
+      <c r="H107">
+        <v>363</v>
+      </c>
+      <c r="I107">
+        <v>435</v>
+      </c>
+      <c r="J107">
+        <v>491</v>
+      </c>
+      <c r="K107">
+        <v>505</v>
+      </c>
+      <c r="L107">
+        <v>404</v>
+      </c>
+      <c r="M107">
+        <v>359</v>
+      </c>
+      <c r="W107">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>305</v>
+      </c>
+      <c r="B108">
+        <v>336</v>
+      </c>
+      <c r="C108">
+        <v>340</v>
+      </c>
+      <c r="D108">
+        <v>318</v>
+      </c>
+      <c r="E108">
+        <v>362</v>
+      </c>
+      <c r="F108">
+        <v>348</v>
+      </c>
+      <c r="G108">
+        <v>363</v>
+      </c>
+      <c r="H108">
+        <v>435</v>
+      </c>
+      <c r="I108">
+        <v>491</v>
+      </c>
+      <c r="J108">
+        <v>505</v>
+      </c>
+      <c r="K108">
+        <v>404</v>
+      </c>
+      <c r="L108">
+        <v>359</v>
+      </c>
+      <c r="M108">
+        <v>310</v>
+      </c>
+      <c r="W108">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>336</v>
+      </c>
+      <c r="B109">
+        <v>340</v>
+      </c>
+      <c r="C109">
+        <v>318</v>
+      </c>
+      <c r="D109">
+        <v>362</v>
+      </c>
+      <c r="E109">
+        <v>348</v>
+      </c>
+      <c r="F109">
+        <v>363</v>
+      </c>
+      <c r="G109">
+        <v>435</v>
+      </c>
+      <c r="H109">
+        <v>491</v>
+      </c>
+      <c r="I109">
+        <v>505</v>
+      </c>
+      <c r="J109">
+        <v>404</v>
+      </c>
+      <c r="K109">
+        <v>359</v>
+      </c>
+      <c r="L109">
+        <v>310</v>
+      </c>
+      <c r="M109">
+        <v>337</v>
+      </c>
+      <c r="W109">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>340</v>
+      </c>
+      <c r="B110">
+        <v>318</v>
+      </c>
+      <c r="C110">
+        <v>362</v>
+      </c>
+      <c r="D110">
+        <v>348</v>
+      </c>
+      <c r="E110">
+        <v>363</v>
+      </c>
+      <c r="F110">
+        <v>435</v>
+      </c>
+      <c r="G110">
+        <v>491</v>
+      </c>
+      <c r="H110">
+        <v>505</v>
+      </c>
+      <c r="I110">
+        <v>404</v>
+      </c>
+      <c r="J110">
+        <v>359</v>
+      </c>
+      <c r="K110">
+        <v>310</v>
+      </c>
+      <c r="L110">
+        <v>337</v>
+      </c>
+      <c r="M110">
+        <v>360</v>
+      </c>
+      <c r="W110">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>318</v>
+      </c>
+      <c r="B111">
+        <v>362</v>
+      </c>
+      <c r="C111">
+        <v>348</v>
+      </c>
+      <c r="D111">
+        <v>363</v>
+      </c>
+      <c r="E111">
+        <v>435</v>
+      </c>
+      <c r="F111">
+        <v>491</v>
+      </c>
+      <c r="G111">
+        <v>505</v>
+      </c>
+      <c r="H111">
+        <v>404</v>
+      </c>
+      <c r="I111">
+        <v>359</v>
+      </c>
+      <c r="J111">
+        <v>310</v>
+      </c>
+      <c r="K111">
+        <v>337</v>
+      </c>
+      <c r="L111">
+        <v>360</v>
+      </c>
+      <c r="M111">
+        <v>342</v>
+      </c>
+      <c r="W111">
+        <f t="shared" si="2"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>362</v>
+      </c>
+      <c r="B112">
+        <v>348</v>
+      </c>
+      <c r="C112">
+        <v>363</v>
+      </c>
+      <c r="D112">
+        <v>435</v>
+      </c>
+      <c r="E112">
+        <v>491</v>
+      </c>
+      <c r="F112">
+        <v>505</v>
+      </c>
+      <c r="G112">
+        <v>404</v>
+      </c>
+      <c r="H112">
+        <v>359</v>
+      </c>
+      <c r="I112">
+        <v>310</v>
+      </c>
+      <c r="J112">
+        <v>337</v>
+      </c>
+      <c r="K112">
+        <v>360</v>
+      </c>
+      <c r="L112">
+        <v>342</v>
+      </c>
+      <c r="M112">
+        <v>406</v>
+      </c>
+      <c r="W112">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>348</v>
+      </c>
+      <c r="B113">
+        <v>363</v>
+      </c>
+      <c r="C113">
+        <v>435</v>
+      </c>
+      <c r="D113">
+        <v>491</v>
+      </c>
+      <c r="E113">
+        <v>505</v>
+      </c>
+      <c r="F113">
+        <v>404</v>
+      </c>
+      <c r="G113">
+        <v>359</v>
+      </c>
+      <c r="H113">
+        <v>310</v>
+      </c>
+      <c r="I113">
+        <v>337</v>
+      </c>
+      <c r="J113">
+        <v>360</v>
+      </c>
+      <c r="K113">
+        <v>342</v>
+      </c>
+      <c r="L113">
+        <v>406</v>
+      </c>
+      <c r="M113">
+        <v>396</v>
+      </c>
+      <c r="W113">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>363</v>
+      </c>
+      <c r="B114">
+        <v>435</v>
+      </c>
+      <c r="C114">
+        <v>491</v>
+      </c>
+      <c r="D114">
+        <v>505</v>
+      </c>
+      <c r="E114">
+        <v>404</v>
+      </c>
+      <c r="F114">
+        <v>359</v>
+      </c>
+      <c r="G114">
+        <v>310</v>
+      </c>
+      <c r="H114">
+        <v>337</v>
+      </c>
+      <c r="I114">
+        <v>360</v>
+      </c>
+      <c r="J114">
+        <v>342</v>
+      </c>
+      <c r="K114">
+        <v>406</v>
+      </c>
+      <c r="L114">
+        <v>396</v>
+      </c>
+      <c r="M114">
+        <v>420</v>
+      </c>
+      <c r="W114">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>435</v>
+      </c>
+      <c r="B115">
+        <v>491</v>
+      </c>
+      <c r="C115">
+        <v>505</v>
+      </c>
+      <c r="D115">
+        <v>404</v>
+      </c>
+      <c r="E115">
+        <v>359</v>
+      </c>
+      <c r="F115">
+        <v>310</v>
+      </c>
+      <c r="G115">
+        <v>337</v>
+      </c>
+      <c r="H115">
+        <v>360</v>
+      </c>
+      <c r="I115">
+        <v>342</v>
+      </c>
+      <c r="J115">
+        <v>406</v>
+      </c>
+      <c r="K115">
+        <v>396</v>
+      </c>
+      <c r="L115">
+        <v>420</v>
+      </c>
+      <c r="M115">
+        <v>472</v>
+      </c>
+      <c r="W115">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>491</v>
+      </c>
+      <c r="B116">
+        <v>505</v>
+      </c>
+      <c r="C116">
+        <v>404</v>
+      </c>
+      <c r="D116">
+        <v>359</v>
+      </c>
+      <c r="E116">
+        <v>310</v>
+      </c>
+      <c r="F116">
+        <v>337</v>
+      </c>
+      <c r="G116">
+        <v>360</v>
+      </c>
+      <c r="H116">
+        <v>342</v>
+      </c>
+      <c r="I116">
+        <v>406</v>
+      </c>
+      <c r="J116">
+        <v>396</v>
+      </c>
+      <c r="K116">
+        <v>420</v>
+      </c>
+      <c r="L116">
+        <v>472</v>
+      </c>
+      <c r="M116">
+        <v>548</v>
+      </c>
+      <c r="W116">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>505</v>
+      </c>
+      <c r="B117">
+        <v>404</v>
+      </c>
+      <c r="C117">
+        <v>359</v>
+      </c>
+      <c r="D117">
+        <v>310</v>
+      </c>
+      <c r="E117">
+        <v>337</v>
+      </c>
+      <c r="F117">
+        <v>360</v>
+      </c>
+      <c r="G117">
+        <v>342</v>
+      </c>
+      <c r="H117">
+        <v>406</v>
+      </c>
+      <c r="I117">
+        <v>396</v>
+      </c>
+      <c r="J117">
+        <v>420</v>
+      </c>
+      <c r="K117">
+        <v>472</v>
+      </c>
+      <c r="L117">
+        <v>548</v>
+      </c>
+      <c r="M117">
+        <v>559</v>
+      </c>
+      <c r="W117">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>404</v>
+      </c>
+      <c r="B118">
+        <v>359</v>
+      </c>
+      <c r="C118">
+        <v>310</v>
+      </c>
+      <c r="D118">
+        <v>337</v>
+      </c>
+      <c r="E118">
+        <v>360</v>
+      </c>
+      <c r="F118">
+        <v>342</v>
+      </c>
+      <c r="G118">
+        <v>406</v>
+      </c>
+      <c r="H118">
+        <v>396</v>
+      </c>
+      <c r="I118">
+        <v>420</v>
+      </c>
+      <c r="J118">
+        <v>472</v>
+      </c>
+      <c r="K118">
+        <v>548</v>
+      </c>
+      <c r="L118">
+        <v>559</v>
+      </c>
+      <c r="M118">
+        <v>463</v>
+      </c>
+      <c r="W118">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>359</v>
+      </c>
+      <c r="B119">
+        <v>310</v>
+      </c>
+      <c r="C119">
+        <v>337</v>
+      </c>
+      <c r="D119">
+        <v>360</v>
+      </c>
+      <c r="E119">
+        <v>342</v>
+      </c>
+      <c r="F119">
+        <v>406</v>
+      </c>
+      <c r="G119">
+        <v>396</v>
+      </c>
+      <c r="H119">
+        <v>420</v>
+      </c>
+      <c r="I119">
+        <v>472</v>
+      </c>
+      <c r="J119">
+        <v>548</v>
+      </c>
+      <c r="K119">
+        <v>559</v>
+      </c>
+      <c r="L119">
+        <v>463</v>
+      </c>
+      <c r="M119">
+        <v>407</v>
+      </c>
+      <c r="W119">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>310</v>
+      </c>
+      <c r="B120">
+        <v>337</v>
+      </c>
+      <c r="C120">
+        <v>360</v>
+      </c>
+      <c r="D120">
+        <v>342</v>
+      </c>
+      <c r="E120">
+        <v>406</v>
+      </c>
+      <c r="F120">
+        <v>396</v>
+      </c>
+      <c r="G120">
+        <v>420</v>
+      </c>
+      <c r="H120">
+        <v>472</v>
+      </c>
+      <c r="I120">
+        <v>548</v>
+      </c>
+      <c r="J120">
+        <v>559</v>
+      </c>
+      <c r="K120">
+        <v>463</v>
+      </c>
+      <c r="L120">
+        <v>407</v>
+      </c>
+      <c r="M120">
+        <v>362</v>
+      </c>
+      <c r="W120">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>337</v>
+      </c>
+      <c r="B121">
+        <v>360</v>
+      </c>
+      <c r="C121">
+        <v>342</v>
+      </c>
+      <c r="D121">
+        <v>406</v>
+      </c>
+      <c r="E121">
+        <v>396</v>
+      </c>
+      <c r="F121">
+        <v>420</v>
+      </c>
+      <c r="G121">
+        <v>472</v>
+      </c>
+      <c r="H121">
+        <v>548</v>
+      </c>
+      <c r="I121">
+        <v>559</v>
+      </c>
+      <c r="J121">
+        <v>463</v>
+      </c>
+      <c r="K121">
+        <v>407</v>
+      </c>
+      <c r="L121">
+        <v>362</v>
+      </c>
+      <c r="M121">
+        <v>405</v>
+      </c>
+      <c r="W121">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>360</v>
+      </c>
+      <c r="B122">
+        <v>342</v>
+      </c>
+      <c r="C122">
+        <v>406</v>
+      </c>
+      <c r="D122">
+        <v>396</v>
+      </c>
+      <c r="E122">
+        <v>420</v>
+      </c>
+      <c r="F122">
+        <v>472</v>
+      </c>
+      <c r="G122">
+        <v>548</v>
+      </c>
+      <c r="H122">
+        <v>559</v>
+      </c>
+      <c r="I122">
+        <v>463</v>
+      </c>
+      <c r="J122">
+        <v>407</v>
+      </c>
+      <c r="K122">
+        <v>362</v>
+      </c>
+      <c r="L122">
+        <v>405</v>
+      </c>
+      <c r="N122" s="5">
+        <v>417</v>
+      </c>
+      <c r="W122">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>342</v>
+      </c>
+      <c r="B123">
+        <v>406</v>
+      </c>
+      <c r="C123">
+        <v>396</v>
+      </c>
+      <c r="D123">
+        <v>420</v>
+      </c>
+      <c r="E123">
+        <v>472</v>
+      </c>
+      <c r="F123">
+        <v>548</v>
+      </c>
+      <c r="G123">
+        <v>559</v>
+      </c>
+      <c r="H123">
+        <v>463</v>
+      </c>
+      <c r="I123">
+        <v>407</v>
+      </c>
+      <c r="J123">
+        <v>362</v>
+      </c>
+      <c r="K123">
+        <v>405</v>
+      </c>
+      <c r="L123">
+        <v>417</v>
+      </c>
+      <c r="N123" s="5">
+        <v>391</v>
+      </c>
+      <c r="W123">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>406</v>
+      </c>
+      <c r="B124">
+        <v>396</v>
+      </c>
+      <c r="C124">
+        <v>420</v>
+      </c>
+      <c r="D124">
+        <v>472</v>
+      </c>
+      <c r="E124">
+        <v>548</v>
+      </c>
+      <c r="F124">
+        <v>559</v>
+      </c>
+      <c r="G124">
+        <v>463</v>
+      </c>
+      <c r="H124">
+        <v>407</v>
+      </c>
+      <c r="I124">
+        <v>362</v>
+      </c>
+      <c r="J124">
+        <v>405</v>
+      </c>
+      <c r="K124">
+        <v>417</v>
+      </c>
+      <c r="L124">
+        <v>391</v>
+      </c>
+      <c r="N124" s="5">
+        <v>419</v>
+      </c>
+      <c r="W124">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>396</v>
+      </c>
+      <c r="B125">
+        <v>420</v>
+      </c>
+      <c r="C125">
+        <v>472</v>
+      </c>
+      <c r="D125">
+        <v>548</v>
+      </c>
+      <c r="E125">
+        <v>559</v>
+      </c>
+      <c r="F125">
+        <v>463</v>
+      </c>
+      <c r="G125">
+        <v>407</v>
+      </c>
+      <c r="H125">
+        <v>362</v>
+      </c>
+      <c r="I125">
+        <v>405</v>
+      </c>
+      <c r="J125">
+        <v>417</v>
+      </c>
+      <c r="K125">
+        <v>391</v>
+      </c>
+      <c r="L125">
+        <v>419</v>
+      </c>
+      <c r="N125" s="5">
+        <v>461</v>
+      </c>
+      <c r="W125">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>420</v>
+      </c>
+      <c r="B126">
+        <v>472</v>
+      </c>
+      <c r="C126">
+        <v>548</v>
+      </c>
+      <c r="D126">
+        <v>559</v>
+      </c>
+      <c r="E126">
+        <v>463</v>
+      </c>
+      <c r="F126">
+        <v>407</v>
+      </c>
+      <c r="G126">
+        <v>362</v>
+      </c>
+      <c r="H126">
+        <v>405</v>
+      </c>
+      <c r="I126">
+        <v>417</v>
+      </c>
+      <c r="J126">
+        <v>391</v>
+      </c>
+      <c r="K126">
+        <v>419</v>
+      </c>
+      <c r="L126">
+        <v>461</v>
+      </c>
+      <c r="N126" s="5">
+        <v>472</v>
+      </c>
+      <c r="W126">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>472</v>
+      </c>
+      <c r="B127">
+        <v>548</v>
+      </c>
+      <c r="C127">
+        <v>559</v>
+      </c>
+      <c r="D127">
+        <v>463</v>
+      </c>
+      <c r="E127">
+        <v>407</v>
+      </c>
+      <c r="F127">
+        <v>362</v>
+      </c>
+      <c r="G127">
+        <v>405</v>
+      </c>
+      <c r="H127">
+        <v>417</v>
+      </c>
+      <c r="I127">
+        <v>391</v>
+      </c>
+      <c r="J127">
+        <v>419</v>
+      </c>
+      <c r="K127">
+        <v>461</v>
+      </c>
+      <c r="L127">
+        <v>472</v>
+      </c>
+      <c r="N127" s="5">
+        <v>535</v>
+      </c>
+      <c r="W127">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>548</v>
+      </c>
+      <c r="B128">
+        <v>559</v>
+      </c>
+      <c r="C128">
+        <v>463</v>
+      </c>
+      <c r="D128">
+        <v>407</v>
+      </c>
+      <c r="E128">
+        <v>362</v>
+      </c>
+      <c r="F128">
+        <v>405</v>
+      </c>
+      <c r="G128">
+        <v>417</v>
+      </c>
+      <c r="H128">
+        <v>391</v>
+      </c>
+      <c r="I128">
+        <v>419</v>
+      </c>
+      <c r="J128">
+        <v>461</v>
+      </c>
+      <c r="K128">
+        <v>472</v>
+      </c>
+      <c r="L128">
+        <v>535</v>
+      </c>
+      <c r="N128" s="5">
+        <v>622</v>
+      </c>
+      <c r="W128">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>559</v>
+      </c>
+      <c r="B129">
+        <v>463</v>
+      </c>
+      <c r="C129">
+        <v>407</v>
+      </c>
+      <c r="D129">
+        <v>362</v>
+      </c>
+      <c r="E129">
+        <v>405</v>
+      </c>
+      <c r="F129">
+        <v>417</v>
+      </c>
+      <c r="G129">
+        <v>391</v>
+      </c>
+      <c r="H129">
+        <v>419</v>
+      </c>
+      <c r="I129">
+        <v>461</v>
+      </c>
+      <c r="J129">
+        <v>472</v>
+      </c>
+      <c r="K129">
+        <v>535</v>
+      </c>
+      <c r="L129">
+        <v>622</v>
+      </c>
+      <c r="N129" s="5">
+        <v>606</v>
+      </c>
+      <c r="W129">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>463</v>
+      </c>
+      <c r="B130">
+        <v>407</v>
+      </c>
+      <c r="C130">
+        <v>362</v>
+      </c>
+      <c r="D130">
+        <v>405</v>
+      </c>
+      <c r="E130">
+        <v>417</v>
+      </c>
+      <c r="F130">
+        <v>391</v>
+      </c>
+      <c r="G130">
+        <v>419</v>
+      </c>
+      <c r="H130">
+        <v>461</v>
+      </c>
+      <c r="I130">
+        <v>472</v>
+      </c>
+      <c r="J130">
+        <v>535</v>
+      </c>
+      <c r="K130">
+        <v>622</v>
+      </c>
+      <c r="L130">
+        <v>606</v>
+      </c>
+      <c r="N130" s="5">
+        <v>508</v>
+      </c>
+      <c r="W130">
+        <f t="shared" si="2"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>407</v>
+      </c>
+      <c r="B131">
+        <v>362</v>
+      </c>
+      <c r="C131">
+        <v>405</v>
+      </c>
+      <c r="D131">
+        <v>417</v>
+      </c>
+      <c r="E131">
+        <v>391</v>
+      </c>
+      <c r="F131">
+        <v>419</v>
+      </c>
+      <c r="G131">
+        <v>461</v>
+      </c>
+      <c r="H131">
+        <v>472</v>
+      </c>
+      <c r="I131">
+        <v>535</v>
+      </c>
+      <c r="J131">
+        <v>622</v>
+      </c>
+      <c r="K131">
+        <v>606</v>
+      </c>
+      <c r="L131">
+        <v>508</v>
+      </c>
+      <c r="N131" s="5">
+        <v>461</v>
+      </c>
+      <c r="W131">
+        <f t="shared" ref="W131:W133" si="3">IF(AND(M131&gt;=$P$2,M131&lt;$P$3),$Q$2,IF(AND(M131&gt;=$P$3,M131&lt;$P$4),$Q$3,IF(AND(M131&gt;=$P$4,M131&lt;$P$5),$Q$4,$Q$5)))</f>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>362</v>
+      </c>
+      <c r="B132">
+        <v>405</v>
+      </c>
+      <c r="C132">
+        <v>417</v>
+      </c>
+      <c r="D132">
+        <v>391</v>
+      </c>
+      <c r="E132">
+        <v>419</v>
+      </c>
+      <c r="F132">
+        <v>461</v>
+      </c>
+      <c r="G132">
+        <v>472</v>
+      </c>
+      <c r="H132">
+        <v>535</v>
+      </c>
+      <c r="I132">
+        <v>622</v>
+      </c>
+      <c r="J132">
+        <v>606</v>
+      </c>
+      <c r="K132">
+        <v>508</v>
+      </c>
+      <c r="L132">
+        <v>461</v>
+      </c>
+      <c r="N132" s="5">
+        <v>390</v>
+      </c>
+      <c r="W132">
+        <f t="shared" si="3"/>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>405</v>
+      </c>
+      <c r="B133">
+        <v>417</v>
+      </c>
+      <c r="C133">
+        <v>391</v>
+      </c>
+      <c r="D133">
+        <v>419</v>
+      </c>
+      <c r="E133">
+        <v>461</v>
+      </c>
+      <c r="F133">
+        <v>472</v>
+      </c>
+      <c r="G133">
+        <v>535</v>
+      </c>
+      <c r="H133">
+        <v>622</v>
+      </c>
+      <c r="I133">
+        <v>606</v>
+      </c>
+      <c r="J133">
+        <v>508</v>
+      </c>
+      <c r="K133">
+        <v>461</v>
+      </c>
+      <c r="L133">
+        <v>390</v>
+      </c>
+      <c r="N133" s="5">
+        <v>432</v>
+      </c>
+      <c r="W133">
+        <f t="shared" si="3"/>
+        <v>453.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>